--- a/publipostage2/0084te143/liste_essais_cliniques_identifies_0084te143.xlsx
+++ b/publipostage2/0084te143/liste_essais_cliniques_identifies_0084te143.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/0084te143/liste_essais_cliniques_identifies_0084te143.xlsx
+++ b/publipostage2/0084te143/liste_essais_cliniques_identifies_0084te143.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L99"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,36 +513,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT00701792</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Randomized Trial Comparing Liver Transplantation to Alternative Therapies for Patients With Pugh B Alcoholic Cirrhosis</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>TRANSCIAL</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -556,32 +566,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT01487850</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Study of Wind Reed Instruments' Fungal Contamination and Its Immunological and Clinical Consequences for Musicians.</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -600,36 +615,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT02841124</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Decision to Limit or Withdraw Specific Therapies for Advanced Cancer and Hematological Malignancies : Physicians and Patients Points of View and Interactions.</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>WHATELSE</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -648,36 +668,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT01742845</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ultrasound-guided Intermediate Cervical Block Versus Superficial Cervical Block for Carotid : a Randomised Controlled Trial</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>CERVECHO</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -696,32 +721,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT00243477</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>MOTIV Study. Effect of Antidepressive Treatment by Escitalopram Started Preoperatively in Patients Undergoing Coronary Artery Bypass Grafting</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -740,36 +770,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT02879565</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Families Expectations and Hope Raised by an Evaluation of Consciousness in Patients With an Unresponsive Wakefulness Syndrome</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>REVE</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -788,36 +823,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT02093143</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Evaluation of the Impact of Adding Remifentanil to Propofol on the Conditions of the Diagnostic Panendoscopy of the Upper Airway Under General Anesthesia With Tubeless Spontaneous Ventilation.</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>ENDOTANIL</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -836,36 +876,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT01360658</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Phase 2 Multicentric Study Evaluating the Efficacy of Polyvalent Intravenous Immunoglobulins in Idiopathic Severe and Refractory Solar Urticaria</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>IGUS</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -884,36 +929,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT01428804</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Pilot Study of Feasibility of the Effect of Treatment With tDCS in Patients Suffering From Resistant Depression</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>DEPRESCO</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
       <c r="J10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -932,36 +982,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT01835951</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Individual Versus Grouped Debriefing Approaches in Anaesthesia Crisis Simulation-Based Training. What Impact On The Technical Score ?</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>DEBRIEF-SIM</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -980,36 +1035,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT02851836</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Validation of an Attachment Picture Set in School-adolescent</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>MONRADO1</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1028,32 +1088,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT02235025</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Ventilatory Constraints During Exercise in Asymptomatic Versus Symptomatic Patients With Mild COPD</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1072,36 +1137,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT00498589</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>A Controlled, Randomized, Double-blind, Multicenter Study, Comparing Methotrexate vs Placebo in Corticosteroid-dependent Ulcerative Colitis</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>METEOR</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1120,36 +1190,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT02362568</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Human Study of Interest on Cervical Ultrasound Exploration for Association With Criteria of Difficult Intubation in General Surgery</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>TUBECHO</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1168,36 +1243,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT02262130</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Phase 2 Multicentric Study Evaluating the Efficacy of Omalizumab in Idiopathic Severe and Refractory Solar Urticaria</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>XOLUS</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1216,36 +1296,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT02845817</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Requests for Euthanasia and Assisted Suicide: a Prospective, Multicenter and Qualitative Study of Their Frequency and Characteristics, of Patients' Motivations and Their Evolution</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>DESA</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1264,36 +1349,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT02862288</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Preliminary Study of Microwave Tumoral Ablation Performances for the Treatment of Pulmonary, Renal and Bone Neoplasia.</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>TherMO</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1312,36 +1402,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT01008228</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Comparison of Efficacity of Simple Aspiration Versus Standard Drainage in the Management of Large Size Primary Spontaneous Pneumothorax</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>EXPRED</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1360,36 +1455,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT03056404</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Research for Specific Proteins of Interest for the Serological Diagnosis of Bird Fancier's Lung</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>HYPERSENS</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
       <c r="J20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1408,36 +1508,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>NCT02588469</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Effects of Exercise and Venous Compression on Upper Airway Resistance in Obese Teenagers With Obstructive Sleep Apnea Syndrome</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>OBESOMAC</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
       <c r="J21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1456,36 +1561,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>NCT02902458</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Psychological Intervention modifiEs Outcome of Patients With implAntable Cardioverter dEfibrillator: The PEACE Study</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>PEACE</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1504,32 +1614,37 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>NCT02834897</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
         <is>
           <t>PELVI-EOS</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -1548,36 +1663,41 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>NCT02862795</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Human PapillomaVirus (HPV) Anal Infection: Study of Prevalence and Risk Factors Among 1000 Patients Benefiting From a Colonoscopy</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>PAPILLAN</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1596,36 +1716,41 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>NCT01743274</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Does Optical Coherence Tomography Optimise Results of Stenting: The DOCTORS Study</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>DOCTORS</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
       <c r="J25" t="b">
         <v>1</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1644,36 +1769,41 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>NCT01969149</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Intravenous Exenatide (Byetta®) Versus Insulin for Perioperative Glycemic Control in Cardiac Surgery: the Open-labeled Randomized Phase II/III ExStress Study</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>ExSTRESS</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
       <c r="J26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="b">
         <v>1</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1692,36 +1822,41 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>NCT02116270</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Accelerated Immunosenescence and Chronic Kidney Disease</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>IRIS</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1740,36 +1875,41 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>NCT02573298</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Cryotherapy and Doppler in Inflammatory Rheumatic Diseases</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>CDRI</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
       <c r="J28" t="b">
         <v>1</v>
       </c>
       <c r="K28" t="b">
         <v>1</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1788,36 +1928,41 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>NCT02849795</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Evaluation of Adipokines and Fat Tissue in Psoriasis and Psoriatic Arthritis and Assessment of Their Relations With the Risk of Cardiovascular Disease</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>ADIPSO</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
       <c r="J29" t="b">
         <v>0</v>
       </c>
       <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1836,36 +1981,41 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>NCT02151214</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Prospective, Multicenter, Randomized Controlled Study Evaluating the Efficacy of Parenteral Nutrition on the Quality of Life and Overall Survival in Patients in the Palliative Phase of Cancer.</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>ALIM-K</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1884,36 +2034,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>NCT02858414</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Exploratory Study of Cellular Reservoirs in Blood From HIV Infected Patients: EURECA (ERANET to Unravel New Roads to Eradication and a Cure for AIDS) Study</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>EURECA</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1932,36 +2087,41 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>NCT02851810</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Oculomotor and Neurophysiological Markers of Emotion Regulation and Attachment Styles in Adolescence</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>MONRADO2</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
       <c r="J32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="b">
         <v>1</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1980,36 +2140,41 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>NCT02103101</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Influence of ABCB1 Polymorphisms on Plasma Concentrations of New Oral Anticoagulants in Case of Serious Adverse Events</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>Pgp NACO</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>GENETIC</t>
         </is>
@@ -2026,40 +2191,45 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>2013-000029-29</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Study of the effect of oxytocin on emotion regulation in adolescents with insecure attachment 
  Etude de l'effet de l'ocytocine sur la régulation émotionnelle chez des adolescents à l’attachement insécure</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>ELOREA 
  ELOREA</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
       </c>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2074,36 +2244,41 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>NCT02301715</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Effects of Intranasal Oxytocin on Emotion Regulation to Stressful Interaction in Insecure Adolescents: a Study Protocol for a Double Blind Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>ELOREA</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2122,36 +2297,41 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>NCT02870608</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Interest of Measuring Lung Elasticity ELASTOgraphy in the Fetus in the Case of PreMAture Childbirth Threat</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>ELASTOMAP</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
       <c r="J36" t="b">
         <v>1</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2170,36 +2350,41 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>NCT02432976</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Impact of Intravenous Exenatide Versus Insulin on Quality of Life in Cardiac Surgery Patients: an Ancillary Study of the ExSTRESS Phase II/III Clinical Trial</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>ExeQOL</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2218,36 +2403,41 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>NCT02862327</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Intravenous Dexamethasone Versus Placebo for Ultrasound Guided Axillary Brachial Plexus Block With Ropivacaine: Randomised, Controlled, Clinical Trial</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>ADEXA</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
       <c r="J38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="b">
         <v>1</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2266,36 +2456,41 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>NCT02843789</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Evolution of Adipokines and Body Composition in Rheumatoid Arthritis Patients Receiving Tocilizumab Therapy</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>ADIPRAT</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
       <c r="J39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2314,36 +2509,41 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>NCT01768949</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Identification of Echocardiographic Criteria Predictive of the Inefficacy and/or the Unsafeness of Recruitment Maneuvers in Patients Suffering From Acute Respiratory Distress Syndrome</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>RV STAR</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
       <c r="J40" t="b">
         <v>0</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2362,36 +2562,41 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>NCT03248999</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Determination of the Prevalence of ESBL-producing Enterobacteriaceae as Carbapenem-resistant Enterobacteriaceae in Nursing Homes in Franche-Comté (France).</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>R'EHPAD</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -2410,36 +2615,41 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>NCT02870712</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Randomized Controlled Trial of the Effectiveness of Perineal Pain and Security of the Suture Led by the Result of Hemostasis Versus Manual Compression Routine Suture Perineal Tears of First Degree During Childbirth, ImSOLENCE Study</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>ImSOLENCE</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2458,36 +2668,41 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>NCT02845934</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Prospective Evaluation of a New Molecular Tool for Early Diagnosis of Mucormycosis</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>MODIMUCOR</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2506,36 +2721,41 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>NCT02820987</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Pharmacokinetics and Pharmacodynamic (PK/PD) of Extended-infusion Meropenem, Piperacillin-tazobactam and Cefepime in the Early Phase of Septic Shock</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>PAACS</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
       <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2554,36 +2774,41 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>NCT02847143</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>A Cross Over Randomized Controlled Trial of the Effect of Nasal Ocytocine on Cerebral Activations in Relation With Attachement in the General Population</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>OTACLA</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
       <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L45" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -2602,36 +2827,41 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>NCT03706846</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Study of Two Fasting Procedures Before Gastroscopy: 6 Hours Versus 2 Hours for Clear Fluids</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>GASTROPREP</t>
         </is>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2650,32 +2880,37 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>NCT02858219</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
         <is>
           <t>VESTIBULE</t>
         </is>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2694,36 +2929,41 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>NCT02849782</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Short and Long Term Fampridine Treatment in Persons With Multiple Sclerosis: Cognitive and Motor Performances</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>FAMPISEP</t>
         </is>
       </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
       <c r="J48" t="b">
         <v>1</v>
       </c>
       <c r="K48" t="b">
         <v>1</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L48" t="b">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2742,32 +2982,37 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>NCT02862314</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr">
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
         <is>
           <t>PROPASPI</t>
         </is>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
       <c r="J49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="b">
         <v>1</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2786,36 +3031,41 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>NCT01845779</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Evaluation of Immune Response Against Human Papillomavirus (HPV)in Patients With Metastatic Cancer of the Anal Canal</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>Epitopes-HPV01</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
       <c r="J50" t="b">
         <v>0</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2834,36 +3084,41 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>NCT03911830</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Effects of an Aerobic Exercise Program on Cycloergometer Followed by Cold Water Immersion Recovery in Patients With Rheumatoid Arthritis</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>PREXCRIM</t>
         </is>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2882,36 +3137,41 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>NCT02842333</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Study of Predictive Immunological Parameters of Molecular Complete Remission in Patients With Chronic Myelogenous Leukemia in Chronic Phase and Treated With Tyrosine Kinase Inhibitor</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>PAMIR01</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2930,36 +3190,41 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>NCT03954522</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Evaluation in Children of the Psychological Impact of the Visit of a Hospitalized Relative in ICU</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>ENVIFAR</t>
         </is>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2978,36 +3243,41 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>NCT03092583</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Analysis of DNA Methylation in Spondyloarthritis</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>METYLAS</t>
         </is>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
       <c r="J54" t="b">
         <v>0</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3026,36 +3296,41 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>NCT03688269</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Determination of the Minimal Effective Concentration (EC90) of Ropivacaine in Axillary Brachial Plexus Block With Intravenous Dexamethasone or Saline Injection</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>AxiRopiDexa</t>
         </is>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
       <c r="J55" t="b">
         <v>0</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3074,36 +3349,41 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>NCT04145414</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Cerebrospinal Fluid Movements Through Interventricular Foramina in Phase Contrast Magnetic Resonance Imaging (PC-MRI)</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>MLCSFIV</t>
         </is>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
       <c r="J56" t="b">
         <v>0</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3122,36 +3402,41 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>NCT02842320</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Targeting Leukemic Stem Cell Expressing the IL-1RAP Protein in Chronic Myelogenous Leukemia (CML)</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>CAR-LMC</t>
         </is>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3170,36 +3455,41 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>NCT03351816</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Impact of New Biomarkers on the Maintenance of Sinus Rhythm After Cardioversion or Ablation of Atrial Fibrillation</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>Biorhythm</t>
         </is>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
       <c r="J58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="b">
         <v>1</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="L58" t="b">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3218,36 +3508,41 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>NCT02402842</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Assessment of the Clinical Value of a Docetaxel, Cisplatin and 5-fluorouracil (DCF) Strategy Adapted to Patients for the Management of Metastatic or Locally Advanced Anal Resistant Radiochemotherapy Squamous Cell Anal Carcinoma.</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>Epitopes-HPV02</t>
         </is>
       </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
       <c r="J59" t="b">
         <v>1</v>
       </c>
       <c r="K59" t="b">
         <v>1</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L59" t="b">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3266,36 +3561,41 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>NCT02817178</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Prospective Study for Validation of Immunological Biomarkers in Patients With Metastatic Colorectal Cancer</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>Epitopes-CRC02</t>
         </is>
       </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
       <c r="J60" t="b">
         <v>1</v>
       </c>
       <c r="K60" t="b">
         <v>1</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L60" t="b">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3314,36 +3614,41 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>NCT02855775</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Study of the Relative Impact of the Neonatal Fc Receptor (FcRn) and the Therapeutic History on Monoclonal Antibodies Elimination. Proof of the Concept on Patients Treated by Bevacizumab or Trastuzumab in Breast Cancer</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>PK-MAB</t>
         </is>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3362,36 +3667,41 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>NCT02838342</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Pharmaco-immunological Study of Interferon-alpha and Metronomic Cyclophosphamide Association in Neuroendocrine Tumors</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>EPICentro</t>
         </is>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
       <c r="J62" t="b">
         <v>0</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3410,36 +3720,41 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>NCT04402918</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Study of Viral Load and Maternal-fetal Serology in the Interpretation of the Vertical Transmission of SARS Cov-2 During Pregnancy</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>TRANSCOVID</t>
         </is>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
       <c r="J63" t="b">
         <v>0</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -3458,36 +3773,41 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>NCT04568746</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Impact of the Implementation of a qSOFA Score on the Care of Adult Patients Referred to the Emergency Department for Suspected Infection</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>qSOFA2</t>
         </is>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3506,36 +3826,41 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>NCT02854345</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Preliminary Study Concerning the Validity of Parathyroid Exploration on a Discovery NM 530c CZT Camera</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>PARAT-CZT</t>
         </is>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
       <c r="J65" t="b">
         <v>0</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3554,36 +3879,41 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>NCT03834805</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Monitoring of Fetal Lung Elasticity by Elastography Between 24 and 39 Weeks</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>ELASTOPULM</t>
         </is>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
       <c r="J66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" t="b">
         <v>1</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="L66" t="b">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3602,36 +3932,41 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>NCT02872090</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Effects of Long Acting Bronchodilators on CARDiac Autonomic Nervous System Control in Patients With COPD</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>LAB-Card</t>
         </is>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
       <c r="J67" t="b">
         <v>0</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3650,36 +3985,41 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>NCT02854644</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Study of the Anti-tumoral Immune Response T Cells Cluster of Differentiation 4 (TCD4): Proof of the Concept in Breast Cancer and Glioma</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>ERISA</t>
         </is>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
       <c r="J68" t="b">
         <v>0</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3698,36 +4038,41 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>NCT03753620</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Development of a Software Correlating Simultaneously fMRI, EEG and Peripheral Physiological Activity</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>NEUREXPLO</t>
         </is>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
       <c r="J69" t="b">
         <v>0</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3746,36 +4091,41 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>NCT04995549</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Construction of a Mechanical Data Base for Mathematically Modeling Uncertainties in Human Skin Tissues</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>SKUM</t>
         </is>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
       <c r="J70" t="b">
         <v>0</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3794,36 +4144,41 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>NCT01644747</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>tDCS as an add-on Treatment for Resistant Major Depression in Uni- or Bipolar Patients: a Randomized, Double-blind, Placebo Controlled Study</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>STICODEP</t>
         </is>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
       <c r="J71" t="b">
         <v>0</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3842,36 +4197,41 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>NCT05236816</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Relationship Between Hip Abductor Strength and Ankle Stability</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>HIAS</t>
         </is>
       </c>
-      <c r="I72" t="b">
-        <v>1</v>
-      </c>
       <c r="J72" t="b">
         <v>1</v>
       </c>
       <c r="K72" t="b">
         <v>1</v>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="L72" t="b">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3890,36 +4250,41 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>NCT04488874</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Clinical Effectiveness of Hypertonic Sodium Lactate Infusion for Intraoperative Brain Relaxation in Patients Undergoing Scheduled Craniotomy for Supratentorial Brain Tumor Resection: Study Protocol of a Single Center Double-blind Randomized Controlled Phase II Pilot Trial</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>LSD</t>
         </is>
       </c>
-      <c r="I73" t="b">
-        <v>1</v>
-      </c>
       <c r="J73" t="b">
         <v>1</v>
       </c>
       <c r="K73" t="b">
         <v>1</v>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="L73" t="b">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3938,36 +4303,41 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>NCT04169022</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Targeting Interleukin 1 Receptor Accessory Protein (IL1RAP) Expressing Acute Myeloid Leukemic (AML) Cells by Chimeric Antigen Receptor (CAR) Engineered T-cells</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>CAR-LAM</t>
         </is>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
       <c r="J74" t="b">
         <v>0</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3986,36 +4356,41 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>NCT05897476</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Prospective Feasibility Study of Point-of-care Ultrasound in Suspected Aortic Dissection</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>FESDAU</t>
         </is>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
       <c r="J75" t="b">
         <v>0</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4034,36 +4409,41 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>NCT04534218</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>Regorafenib in Combination With Metronomic Cyclophosphamide, Capecitabine, and Low-dose Aspirin in Metastatic Colorectal Cancer Carcinoma An Open-label Phase II</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>REPROGRAM-01</t>
         </is>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
       <c r="J76" t="b">
         <v>0</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4082,36 +4462,41 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>NCT02818907</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Evaluation of Survival Prognostic Factors for Patients With Exocrine Pancreatic Cancer Resectable or Potentially Resectable : a Multicentre Prospective Cohort</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>Pancreas-CGE</t>
         </is>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
       <c r="J77" t="b">
         <v>0</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4130,36 +4515,41 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>NCT02846103</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Study of Anti-telomerase T CD4 Immunity in Metastatic Lung Cancer</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>Telocap02</t>
         </is>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
       <c r="J78" t="b">
         <v>0</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4178,36 +4568,41 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>NCT04990349</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Normoxemic Versus Hyperoxemic Extracorporeal Oxygenation : Impact on Organ Dysfunction in Patients Supported by Veino-arterial ECMO for Cardiogenic Shock</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>ECMOxy</t>
         </is>
       </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
       <c r="J79" t="b">
         <v>1</v>
       </c>
       <c r="K79" t="b">
         <v>1</v>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="L79" t="b">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4226,36 +4621,41 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>NCT05624255</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Correlating the Measure of Retinal Vascular Density Through Angio-OCT with Calcium Score</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>ANOSCA</t>
         </is>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
       <c r="J80" t="b">
         <v>0</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="L80" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4274,36 +4674,41 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>NCT03069131</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>A Multicenter, Double-blind, Placebo-controlled Randomized Clinical Trial Comparing Two Strategies of Primary Prophylaxis of Spontaneous Bacterial Peritonitis in Severe Cirrhotic Patients With Ascites : Using or Not Using Rifaximin</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>ProPILARifax</t>
         </is>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
       <c r="J81" t="b">
         <v>0</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="L81" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4322,36 +4727,41 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>NCT03312166</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>First Study Evaluating Efficiency and Safety of a Compressive Device to Prevent Keloid Scars Recurrence After Surgery</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>SCARWARS</t>
         </is>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
       <c r="J82" t="b">
         <v>0</v>
       </c>
       <c r="K82" t="b">
         <v>0</v>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4368,38 +4778,43 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
         <is>
           <t>2018-001644-61</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>Efficacité en 1ère ligne de traitement d’une polychimiothérapie (méthotrexate, L-asparaginase, idarubicine et dexamethasone) dans la leucémie à cellules dendritiques plasmacytoïdes (LpDC) de l’adulte.</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>LpDessai-01</t>
         </is>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
       <c r="J83" t="b">
         <v>0</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
       </c>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4412,40 +4827,45 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
         <is>
           <t>2019-001720-35</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>Evaluation de l’intérêt d’une polychimiothérapie par XELOXIRI-3 chez les patients âgés ou fragiles atteints d’un adénocarcinome pancréatique métastatique 
  Evaluation de l’intérêt d’une polychimiothérapie par XELOXIRI-3 chez les patients âgés ou fragiles atteints d’un adénocarcinome pancréatique métastatique</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>ALIX 
  ALIX</t>
         </is>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
       <c r="J84" t="b">
         <v>0</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
       </c>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4460,36 +4880,41 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>NCT02818426</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Anticancer Therapeutic Vaccination Using Telomerase-derives Universal Cancer Peptides in Metastatic Non Small Cell Lung Cancer : A Phase I/II Study</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>UCPVax</t>
         </is>
       </c>
-      <c r="I85" t="b">
-        <v>1</v>
-      </c>
       <c r="J85" t="b">
         <v>1</v>
       </c>
       <c r="K85" t="b">
         <v>1</v>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="L85" t="b">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4508,36 +4933,41 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>NCT03705078</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>A Multicenter Randomized Clinical Trial Comparing Two Treatment Strategies to Prevent Rebleeding From Gastric Varices: "Early TIPS" Versus Glue Obliteration</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>GAVAPROSEC</t>
         </is>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
       <c r="J86" t="b">
         <v>0</v>
       </c>
       <c r="K86" t="b">
         <v>0</v>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="L86" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4556,36 +4986,41 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>NCT04280848</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>Anticancer Therapeutic Vaccination Using Telomerase-derived Universal Cancer Peptides in Glioblastoma</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>UCPVax-Glio</t>
         </is>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
       <c r="J87" t="b">
         <v>0</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="L87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4604,36 +5039,41 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>NCT02838381</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>Study of Genetic and Cellular Immunological Parameters Predictive of Disease-free Survival in Patients With Metastatic Cancer</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>Epitopes-CRC01</t>
         </is>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
       <c r="J88" t="b">
         <v>0</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4652,36 +5092,41 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>NCT02839278</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>Biological Evaluation of a Novel Anti-inflammatory Treatment in Immune-mediated Inflammatory Diseases</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>Super-Bio</t>
         </is>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
       <c r="J89" t="b">
         <v>0</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -4700,36 +5145,41 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>NCT03946358</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>A Phase II Study Evaluating the Interest to Combine UCPVax a CD4 TH1-inducer Cancer Vaccine and Atezolizumab for the Treatment of Human PapillomaVirus Positive Cancers</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>VolATIL</t>
         </is>
       </c>
-      <c r="I90" t="b">
-        <v>1</v>
-      </c>
       <c r="J90" t="b">
         <v>1</v>
       </c>
       <c r="K90" t="b">
         <v>1</v>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="L90" t="b">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -4748,36 +5198,41 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>NCT06255275</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>Impact of Perceptive, Executive and Emotional Factors on Decision-making in the Context of Pedestrian Crossing in an Industrial Environment Involving Traffic of Autonomous Vehicles (forklifts)</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>VASIS</t>
         </is>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
       <c r="J91" t="b">
         <v>0</v>
       </c>
       <c r="K91" t="b">
         <v>0</v>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="L91" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4796,32 +5251,37 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>NCT02845999</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr">
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
         <is>
           <t>Allogenic Immunotherapy Based on Natural Killer Cell Adoptive Transfer in Metastatic Gastrointestinal Carcinoma Treated With Cetuximab : a Phase I Trial</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>NK-EGFR01</t>
         </is>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
       <c r="J92" t="b">
         <v>0</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -4840,28 +5300,33 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>NCT02821559</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr">
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
         <is>
           <t>EROS</t>
         </is>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
       <c r="J93" t="b">
         <v>0</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4878,30 +5343,35 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
         <is>
           <t>2006-005110-12</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr">
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
         <is>
           <t>Evaluation de l'association Fofiri 3 et bévacizumab (Avastin) dans le traitement des cadénocarcinomes colorectaux métastasiques</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="b">
         <v>0</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
       </c>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4914,36 +5384,41 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
         <is>
           <t>2019-000881-39</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr">
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
         <is>
           <t>A phase II study evaluating the interest to combine UCPVax a CD4 TH1-inducer cancer vaccine and atezolizumab for the treatment of HPV positive cancers 
  Etude de phase II évaluant l’intérêt d’associer le vaccin UCPVax et l’Atezolizumab dans le traitement des cancers HPV positifs</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>VolATIL study 
  VolATIL</t>
         </is>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
       <c r="J95" t="b">
         <v>0</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
       </c>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4956,36 +5431,41 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
         <is>
           <t>2020-002344-23</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr">
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
         <is>
           <t>Regorafenib in combination with metronomic cyclophosphamide, capecitabine, and low-dose aspirin in metastatic colorectal cancer carcinoma An open-label phase II 
  Régorafenib en association avec une polychimiothérapie métronomique à base de cyclophosphamide, capecitabine et aspirine à faible dose  dans le traitement des cancers colorectaux métastatiques. Etude de phase II</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>REPROGRAM-01 
  REPROGRAM-01</t>
         </is>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
       <c r="J96" t="b">
         <v>0</v>
       </c>
       <c r="K96" t="b">
         <v>0</v>
       </c>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4998,34 +5478,39 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
         <is>
           <t>2021-005549-34</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr">
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
         <is>
           <t>Cabo-POLARIS. Etude de phase 2 prospective multicentrique en ouvert pour évaluer la durée de traitement par cabozantinib chez les patients atteints de carcinome rénal métastatique ou localement avancé en hémodialyse (HD).</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>Cabo-POLARIS</t>
         </is>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
       <c r="J97" t="b">
         <v>0</v>
       </c>
       <c r="K97" t="b">
         <v>0</v>
       </c>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5038,34 +5523,39 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
         <is>
           <t>2015-002575-16</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr">
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
         <is>
           <t>Etude de phase II, multicentrique, en ouvert, randomisée évaluant l'efficacité et la sécurité SUnitinib administre selon un schéma alteRnatiF chez des patients atteints d’adénocarcinome rénal avancé ou métastatique</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>SURF</t>
         </is>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
       <c r="J98" t="b">
         <v>0</v>
       </c>
       <c r="K98" t="b">
         <v>0</v>
       </c>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5078,34 +5568,39 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
         <is>
           <t>2009-016513-26</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr">
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
         <is>
           <t>Etude pilote multicentrique randomisée en double aveugle des effets de la toxine botulique dans le traitement des vestibulodynies</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>VESTIBULE</t>
         </is>
       </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
       <c r="J99" t="b">
         <v>0</v>
       </c>
       <c r="K99" t="b">
         <v>0</v>
       </c>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="b">
+        <v>0</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/publipostage2/0084te143/liste_essais_cliniques_identifies_0084te143.xlsx
+++ b/publipostage2/0084te143/liste_essais_cliniques_identifies_0084te143.xlsx
@@ -55,22 +55,22 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟩</t>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📗</t>
   </si>
   <si>
     <t>rouge</t>
   </si>
   <si>
-    <t>noir</t>
+    <t>bleu</t>
   </si>
   <si>
     <t>orange</t>

--- a/publipostage2/0084te143/liste_essais_cliniques_identifies_0084te143.xlsx
+++ b/publipostage2/0084te143/liste_essais_cliniques_identifies_0084te143.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/0084te143/liste_essais_cliniques_identifies_0084te143.xlsx
+++ b/publipostage2/0084te143/liste_essais_cliniques_identifies_0084te143.xlsx
@@ -70,7 +70,7 @@
     <t>rouge</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>orange</t>
@@ -79,16 +79,16 @@
     <t>vert</t>
   </si>
   <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00701792</t>

--- a/publipostage2/0084te143/liste_essais_cliniques_identifies_0084te143.xlsx
+++ b/publipostage2/0084te143/liste_essais_cliniques_identifies_0084te143.xlsx
@@ -76,34 +76,43 @@
     <t>NCT02841124</t>
   </si>
   <si>
+    <t>NCT00243477</t>
+  </si>
+  <si>
     <t>NCT01742845</t>
   </si>
   <si>
-    <t>NCT00243477</t>
+    <t>NCT02851836</t>
+  </si>
+  <si>
+    <t>NCT02093143</t>
+  </si>
+  <si>
+    <t>NCT01835951</t>
+  </si>
+  <si>
+    <t>NCT01428804</t>
+  </si>
+  <si>
+    <t>NCT01360658</t>
   </si>
   <si>
     <t>NCT02879565</t>
   </si>
   <si>
-    <t>NCT02093143</t>
-  </si>
-  <si>
-    <t>NCT01360658</t>
-  </si>
-  <si>
-    <t>NCT01428804</t>
-  </si>
-  <si>
-    <t>NCT01835951</t>
-  </si>
-  <si>
-    <t>NCT02851836</t>
+    <t>NCT00498589</t>
   </si>
   <si>
     <t>NCT02235025</t>
   </si>
   <si>
-    <t>NCT00498589</t>
+    <t>NCT01008228</t>
+  </si>
+  <si>
+    <t>NCT02862288</t>
+  </si>
+  <si>
+    <t>NCT02845817</t>
   </si>
   <si>
     <t>NCT02362568</t>
@@ -112,222 +121,213 @@
     <t>NCT02262130</t>
   </si>
   <si>
-    <t>NCT02845817</t>
-  </si>
-  <si>
-    <t>NCT02862288</t>
-  </si>
-  <si>
-    <t>NCT01008228</t>
+    <t>NCT02862795</t>
+  </si>
+  <si>
+    <t>NCT02902458</t>
+  </si>
+  <si>
+    <t>NCT02588469</t>
+  </si>
+  <si>
+    <t>NCT01969149</t>
   </si>
   <si>
     <t>NCT03056404</t>
   </si>
   <si>
-    <t>NCT02588469</t>
-  </si>
-  <si>
-    <t>NCT02902458</t>
+    <t>NCT01743274</t>
   </si>
   <si>
     <t>NCT02834897</t>
   </si>
   <si>
-    <t>NCT02862795</t>
-  </si>
-  <si>
-    <t>NCT01743274</t>
-  </si>
-  <si>
-    <t>NCT01969149</t>
+    <t>NCT02573298</t>
+  </si>
+  <si>
+    <t>NCT02851810</t>
+  </si>
+  <si>
+    <t>NCT01768949</t>
+  </si>
+  <si>
+    <t>NCT02858414</t>
+  </si>
+  <si>
+    <t>NCT02849795</t>
   </si>
   <si>
     <t>NCT02116270</t>
   </si>
   <si>
-    <t>NCT02573298</t>
-  </si>
-  <si>
-    <t>NCT02849795</t>
+    <t>NCT02870608</t>
+  </si>
+  <si>
+    <t>NCT02301715</t>
+  </si>
+  <si>
+    <t>NCT02103101</t>
+  </si>
+  <si>
+    <t>NCT02862327</t>
+  </si>
+  <si>
+    <t>NCT02432976</t>
+  </si>
+  <si>
+    <t>NCT02843789</t>
   </si>
   <si>
     <t>NCT02151214</t>
   </si>
   <si>
-    <t>NCT02858414</t>
-  </si>
-  <si>
-    <t>NCT02851810</t>
-  </si>
-  <si>
-    <t>NCT02103101</t>
-  </si>
-  <si>
-    <t>NCT02301715</t>
-  </si>
-  <si>
-    <t>NCT02870608</t>
-  </si>
-  <si>
-    <t>NCT02432976</t>
-  </si>
-  <si>
-    <t>NCT02862327</t>
-  </si>
-  <si>
-    <t>NCT02843789</t>
-  </si>
-  <si>
-    <t>NCT01768949</t>
+    <t>NCT03706846</t>
   </si>
   <si>
     <t>NCT03248999</t>
   </si>
   <si>
+    <t>NCT02847143</t>
+  </si>
+  <si>
+    <t>NCT02820987</t>
+  </si>
+  <si>
+    <t>NCT02845934</t>
+  </si>
+  <si>
     <t>NCT02870712</t>
   </si>
   <si>
-    <t>NCT02845934</t>
-  </si>
-  <si>
-    <t>NCT02820987</t>
-  </si>
-  <si>
-    <t>NCT02847143</t>
-  </si>
-  <si>
-    <t>NCT03706846</t>
+    <t>NCT01845779</t>
+  </si>
+  <si>
+    <t>NCT02862314</t>
   </si>
   <si>
     <t>NCT02858219</t>
   </si>
   <si>
+    <t>NCT03911830</t>
+  </si>
+  <si>
     <t>NCT02849782</t>
   </si>
   <si>
-    <t>NCT02862314</t>
-  </si>
-  <si>
-    <t>NCT01845779</t>
-  </si>
-  <si>
-    <t>NCT03911830</t>
+    <t>NCT03954522</t>
+  </si>
+  <si>
+    <t>NCT04145414</t>
+  </si>
+  <si>
+    <t>NCT03351816</t>
+  </si>
+  <si>
+    <t>NCT02855775</t>
+  </si>
+  <si>
+    <t>NCT02842320</t>
+  </si>
+  <si>
+    <t>NCT03092583</t>
+  </si>
+  <si>
+    <t>NCT02817178</t>
+  </si>
+  <si>
+    <t>NCT02402842</t>
   </si>
   <si>
     <t>NCT02842333</t>
   </si>
   <si>
-    <t>NCT03954522</t>
-  </si>
-  <si>
-    <t>NCT03092583</t>
-  </si>
-  <si>
     <t>NCT03688269</t>
   </si>
   <si>
-    <t>NCT04145414</t>
-  </si>
-  <si>
-    <t>NCT02842320</t>
-  </si>
-  <si>
-    <t>NCT03351816</t>
-  </si>
-  <si>
-    <t>NCT02402842</t>
-  </si>
-  <si>
-    <t>NCT02817178</t>
-  </si>
-  <si>
-    <t>NCT02855775</t>
+    <t>NCT04568746</t>
+  </si>
+  <si>
+    <t>NCT02872090</t>
+  </si>
+  <si>
+    <t>NCT03834805</t>
+  </si>
+  <si>
+    <t>NCT02854345</t>
+  </si>
+  <si>
+    <t>NCT04402918</t>
+  </si>
+  <si>
+    <t>NCT02854644</t>
   </si>
   <si>
     <t>NCT02838342</t>
   </si>
   <si>
-    <t>NCT04402918</t>
-  </si>
-  <si>
-    <t>NCT04568746</t>
-  </si>
-  <si>
-    <t>NCT02854345</t>
-  </si>
-  <si>
-    <t>NCT03834805</t>
-  </si>
-  <si>
-    <t>NCT02872090</t>
-  </si>
-  <si>
-    <t>NCT02854644</t>
+    <t>NCT01644747</t>
+  </si>
+  <si>
+    <t>NCT05236816</t>
+  </si>
+  <si>
+    <t>NCT04995549</t>
   </si>
   <si>
     <t>NCT03753620</t>
   </si>
   <si>
-    <t>NCT04995549</t>
-  </si>
-  <si>
-    <t>NCT01644747</t>
-  </si>
-  <si>
-    <t>NCT05236816</t>
-  </si>
-  <si>
     <t>NCT04488874</t>
   </si>
   <si>
+    <t>NCT04990349</t>
+  </si>
+  <si>
+    <t>NCT02818907</t>
+  </si>
+  <si>
+    <t>NCT05624255</t>
+  </si>
+  <si>
+    <t>NCT03069131</t>
+  </si>
+  <si>
+    <t>NCT05897476</t>
+  </si>
+  <si>
     <t>NCT04169022</t>
   </si>
   <si>
-    <t>NCT05897476</t>
+    <t>NCT02846103</t>
   </si>
   <si>
     <t>NCT04534218</t>
   </si>
   <si>
-    <t>NCT02818907</t>
-  </si>
-  <si>
-    <t>NCT02846103</t>
-  </si>
-  <si>
-    <t>NCT04990349</t>
-  </si>
-  <si>
-    <t>NCT05624255</t>
-  </si>
-  <si>
-    <t>NCT03069131</t>
-  </si>
-  <si>
     <t>NCT03312166</t>
   </si>
   <si>
+    <t>NCT06255275</t>
+  </si>
+  <si>
+    <t>NCT02839278</t>
+  </si>
+  <si>
+    <t>NCT03705078</t>
+  </si>
+  <si>
+    <t>NCT02838381</t>
+  </si>
+  <si>
     <t>NCT02818426</t>
   </si>
   <si>
-    <t>NCT03705078</t>
+    <t>NCT03946358</t>
   </si>
   <si>
     <t>NCT04280848</t>
   </si>
   <si>
-    <t>NCT02838381</t>
-  </si>
-  <si>
-    <t>NCT02839278</t>
-  </si>
-  <si>
-    <t>NCT03946358</t>
-  </si>
-  <si>
-    <t>NCT06255275</t>
-  </si>
-  <si>
     <t>NCT02845999</t>
   </si>
   <si>
@@ -346,15 +346,15 @@
     <t>2006-005110-12</t>
   </si>
   <si>
+    <t>2021-005549-34</t>
+  </si>
+  <si>
     <t>2019-000881-39</t>
   </si>
   <si>
     <t>2020-002344-23</t>
   </si>
   <si>
-    <t>2021-005549-34</t>
-  </si>
-  <si>
     <t>2015-002575-16</t>
   </si>
   <si>
@@ -418,34 +418,43 @@
     <t>Decision to Limit or Withdraw Specific Therapies for Advanced Cancer and Hematological Malignancies : Physicians and Patients Points of View and Interactions.</t>
   </si>
   <si>
+    <t>MOTIV Study. Effect of Antidepressive Treatment by Escitalopram Started Preoperatively in Patients Undergoing Coronary Artery Bypass Grafting</t>
+  </si>
+  <si>
     <t>Ultrasound-guided Intermediate Cervical Block Versus Superficial Cervical Block for Carotid : a Randomised Controlled Trial</t>
   </si>
   <si>
-    <t>MOTIV Study. Effect of Antidepressive Treatment by Escitalopram Started Preoperatively in Patients Undergoing Coronary Artery Bypass Grafting</t>
+    <t>Validation of an Attachment Picture Set in School-adolescent</t>
+  </si>
+  <si>
+    <t>Evaluation of the Impact of Adding Remifentanil to Propofol on the Conditions of the Diagnostic Panendoscopy of the Upper Airway Under General Anesthesia With Tubeless Spontaneous Ventilation.</t>
+  </si>
+  <si>
+    <t>Individual Versus Grouped Debriefing Approaches in Anaesthesia Crisis Simulation-Based Training. What Impact On The Technical Score ?</t>
+  </si>
+  <si>
+    <t>Pilot Study of Feasibility of the Effect of Treatment With tDCS in Patients Suffering From Resistant Depression</t>
+  </si>
+  <si>
+    <t>Phase 2 Multicentric Study Evaluating the Efficacy of Polyvalent Intravenous Immunoglobulins in Idiopathic Severe and Refractory Solar Urticaria</t>
   </si>
   <si>
     <t>Families Expectations and Hope Raised by an Evaluation of Consciousness in Patients With an Unresponsive Wakefulness Syndrome</t>
   </si>
   <si>
-    <t>Evaluation of the Impact of Adding Remifentanil to Propofol on the Conditions of the Diagnostic Panendoscopy of the Upper Airway Under General Anesthesia With Tubeless Spontaneous Ventilation.</t>
-  </si>
-  <si>
-    <t>Phase 2 Multicentric Study Evaluating the Efficacy of Polyvalent Intravenous Immunoglobulins in Idiopathic Severe and Refractory Solar Urticaria</t>
-  </si>
-  <si>
-    <t>Pilot Study of Feasibility of the Effect of Treatment With tDCS in Patients Suffering From Resistant Depression</t>
-  </si>
-  <si>
-    <t>Individual Versus Grouped Debriefing Approaches in Anaesthesia Crisis Simulation-Based Training. What Impact On The Technical Score ?</t>
-  </si>
-  <si>
-    <t>Validation of an Attachment Picture Set in School-adolescent</t>
+    <t>A Controlled, Randomized, Double-blind, Multicenter Study, Comparing Methotrexate vs Placebo in Corticosteroid-dependent Ulcerative Colitis</t>
   </si>
   <si>
     <t>Ventilatory Constraints During Exercise in Asymptomatic Versus Symptomatic Patients With Mild COPD</t>
   </si>
   <si>
-    <t>A Controlled, Randomized, Double-blind, Multicenter Study, Comparing Methotrexate vs Placebo in Corticosteroid-dependent Ulcerative Colitis</t>
+    <t>Comparison of Efficacity of Simple Aspiration Versus Standard Drainage in the Management of Large Size Primary Spontaneous Pneumothorax</t>
+  </si>
+  <si>
+    <t>Preliminary Study of Microwave Tumoral Ablation Performances for the Treatment of Pulmonary, Renal and Bone Neoplasia.</t>
+  </si>
+  <si>
+    <t>Requests for Euthanasia and Assisted Suicide: a Prospective, Multicenter and Qualitative Study of Their Frequency and Characteristics, of Patients' Motivations and Their Evolution</t>
   </si>
   <si>
     <t>Human Study of Interest on Cervical Ultrasound Exploration for Association With Criteria of Difficult Intubation in General Surgery</t>
@@ -454,197 +463,200 @@
     <t>Phase 2 Multicentric Study Evaluating the Efficacy of Omalizumab in Idiopathic Severe and Refractory Solar Urticaria</t>
   </si>
   <si>
-    <t>Requests for Euthanasia and Assisted Suicide: a Prospective, Multicenter and Qualitative Study of Their Frequency and Characteristics, of Patients' Motivations and Their Evolution</t>
-  </si>
-  <si>
-    <t>Preliminary Study of Microwave Tumoral Ablation Performances for the Treatment of Pulmonary, Renal and Bone Neoplasia.</t>
-  </si>
-  <si>
-    <t>Comparison of Efficacity of Simple Aspiration Versus Standard Drainage in the Management of Large Size Primary Spontaneous Pneumothorax</t>
+    <t>Human PapillomaVirus (HPV) Anal Infection: Study of Prevalence and Risk Factors Among 1000 Patients Benefiting From a Colonoscopy</t>
+  </si>
+  <si>
+    <t>Psychological Intervention modifiEs Outcome of Patients With implAntable Cardioverter dEfibrillator: The PEACE Study</t>
+  </si>
+  <si>
+    <t>Effects of Exercise and Venous Compression on Upper Airway Resistance in Obese Teenagers With Obstructive Sleep Apnea Syndrome</t>
+  </si>
+  <si>
+    <t>Intravenous Exenatide (Byetta®) Versus Insulin for Perioperative Glycemic Control in Cardiac Surgery: the Open-labeled Randomized Phase II/III ExStress Study</t>
   </si>
   <si>
     <t>Research for Specific Proteins of Interest for the Serological Diagnosis of Bird Fancier's Lung</t>
   </si>
   <si>
-    <t>Effects of Exercise and Venous Compression on Upper Airway Resistance in Obese Teenagers With Obstructive Sleep Apnea Syndrome</t>
-  </si>
-  <si>
-    <t>Psychological Intervention modifiEs Outcome of Patients With implAntable Cardioverter dEfibrillator: The PEACE Study</t>
-  </si>
-  <si>
-    <t>Human PapillomaVirus (HPV) Anal Infection: Study of Prevalence and Risk Factors Among 1000 Patients Benefiting From a Colonoscopy</t>
-  </si>
-  <si>
     <t>Does Optical Coherence Tomography Optimise Results of Stenting: The DOCTORS Study</t>
   </si>
   <si>
-    <t>Intravenous Exenatide (Byetta®) Versus Insulin for Perioperative Glycemic Control in Cardiac Surgery: the Open-labeled Randomized Phase II/III ExStress Study</t>
+    <t>Cryotherapy and Doppler in Inflammatory Rheumatic Diseases</t>
+  </si>
+  <si>
+    <t>Oculomotor and Neurophysiological Markers of Emotion Regulation and Attachment Styles in Adolescence</t>
+  </si>
+  <si>
+    <t>Identification of Echocardiographic Criteria Predictive of the Inefficacy and/or the Unsafeness of Recruitment Maneuvers in Patients Suffering From Acute Respiratory Distress Syndrome</t>
+  </si>
+  <si>
+    <t>Exploratory Study of Cellular Reservoirs in Blood From HIV Infected Patients: EURECA (ERANET to Unravel New Roads to Eradication and a Cure for AIDS) Study</t>
+  </si>
+  <si>
+    <t>Evaluation of Adipokines and Fat Tissue in Psoriasis and Psoriatic Arthritis and Assessment of Their Relations With the Risk of Cardiovascular Disease</t>
   </si>
   <si>
     <t>Accelerated Immunosenescence and Chronic Kidney Disease</t>
   </si>
   <si>
-    <t>Cryotherapy and Doppler in Inflammatory Rheumatic Diseases</t>
-  </si>
-  <si>
-    <t>Evaluation of Adipokines and Fat Tissue in Psoriasis and Psoriatic Arthritis and Assessment of Their Relations With the Risk of Cardiovascular Disease</t>
-  </si>
-  <si>
-    <t>Prospective, Multicenter, Randomized Controlled Study Evaluating the Efficacy of Parenteral Nutrition on the Quality of Life and Overall Survival in Patients in the Palliative Phase of Cancer.</t>
-  </si>
-  <si>
-    <t>Exploratory Study of Cellular Reservoirs in Blood From HIV Infected Patients: EURECA (ERANET to Unravel New Roads to Eradication and a Cure for AIDS) Study</t>
-  </si>
-  <si>
-    <t>Oculomotor and Neurophysiological Markers of Emotion Regulation and Attachment Styles in Adolescence</t>
-  </si>
-  <si>
-    <t>Influence of ABCB1 Polymorphisms on Plasma Concentrations of New Oral Anticoagulants in Case of Serious Adverse Events</t>
+    <t>Interest of Measuring Lung Elasticity ELASTOgraphy in the Fetus in the Case of PreMAture Childbirth Threat</t>
+  </si>
+  <si>
+    <t>Effects of Intranasal Oxytocin on Emotion Regulation to Stressful Interaction in Insecure Adolescents: a Study Protocol for a Double Blind Randomized Controlled Trial</t>
   </si>
   <si>
     <t>Study of the effect of oxytocin on emotion regulation in adolescents with insecure attachment 
  Etude de l'effet de l'ocytocine sur la régulation émotionnelle chez des adolescents à l’attachement insécure</t>
   </si>
   <si>
-    <t>Effects of Intranasal Oxytocin on Emotion Regulation to Stressful Interaction in Insecure Adolescents: a Study Protocol for a Double Blind Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Interest of Measuring Lung Elasticity ELASTOgraphy in the Fetus in the Case of PreMAture Childbirth Threat</t>
+    <t>Influence of ABCB1 Polymorphisms on Plasma Concentrations of New Oral Anticoagulants in Case of Serious Adverse Events</t>
+  </si>
+  <si>
+    <t>Intravenous Dexamethasone Versus Placebo for Ultrasound Guided Axillary Brachial Plexus Block With Ropivacaine: Randomised, Controlled, Clinical Trial</t>
   </si>
   <si>
     <t>Impact of Intravenous Exenatide Versus Insulin on Quality of Life in Cardiac Surgery Patients: an Ancillary Study of the ExSTRESS Phase II/III Clinical Trial</t>
   </si>
   <si>
-    <t>Intravenous Dexamethasone Versus Placebo for Ultrasound Guided Axillary Brachial Plexus Block With Ropivacaine: Randomised, Controlled, Clinical Trial</t>
-  </si>
-  <si>
     <t>Evolution of Adipokines and Body Composition in Rheumatoid Arthritis Patients Receiving Tocilizumab Therapy</t>
   </si>
   <si>
-    <t>Identification of Echocardiographic Criteria Predictive of the Inefficacy and/or the Unsafeness of Recruitment Maneuvers in Patients Suffering From Acute Respiratory Distress Syndrome</t>
+    <t>Prospective, Multicenter, Randomized Controlled Study Evaluating the Efficacy of Parenteral Nutrition on the Quality of Life and Overall Survival in Patients in the Palliative Phase of Cancer.</t>
+  </si>
+  <si>
+    <t>Study of Two Fasting Procedures Before Gastroscopy: 6 Hours Versus 2 Hours for Clear Fluids</t>
   </si>
   <si>
     <t>Determination of the Prevalence of ESBL-producing Enterobacteriaceae as Carbapenem-resistant Enterobacteriaceae in Nursing Homes in Franche-Comté (France).</t>
   </si>
   <si>
+    <t>A Cross Over Randomized Controlled Trial of the Effect of Nasal Ocytocine on Cerebral Activations in Relation With Attachement in the General Population</t>
+  </si>
+  <si>
+    <t>Pharmacokinetics and Pharmacodynamic (PK/PD) of Extended-infusion Meropenem, Piperacillin-tazobactam and Cefepime in the Early Phase of Septic Shock</t>
+  </si>
+  <si>
+    <t>Prospective Evaluation of a New Molecular Tool for Early Diagnosis of Mucormycosis</t>
+  </si>
+  <si>
     <t>Randomized Controlled Trial of the Effectiveness of Perineal Pain and Security of the Suture Led by the Result of Hemostasis Versus Manual Compression Routine Suture Perineal Tears of First Degree During Childbirth, ImSOLENCE Study</t>
   </si>
   <si>
-    <t>Prospective Evaluation of a New Molecular Tool for Early Diagnosis of Mucormycosis</t>
-  </si>
-  <si>
-    <t>Pharmacokinetics and Pharmacodynamic (PK/PD) of Extended-infusion Meropenem, Piperacillin-tazobactam and Cefepime in the Early Phase of Septic Shock</t>
-  </si>
-  <si>
-    <t>A Cross Over Randomized Controlled Trial of the Effect of Nasal Ocytocine on Cerebral Activations in Relation With Attachement in the General Population</t>
-  </si>
-  <si>
-    <t>Study of Two Fasting Procedures Before Gastroscopy: 6 Hours Versus 2 Hours for Clear Fluids</t>
+    <t>Evaluation of Immune Response Against Human Papillomavirus (HPV)in Patients With Metastatic Cancer of the Anal Canal</t>
+  </si>
+  <si>
+    <t>Effects of an Aerobic Exercise Program on Cycloergometer Followed by Cold Water Immersion Recovery in Patients With Rheumatoid Arthritis</t>
   </si>
   <si>
     <t>Short and Long Term Fampridine Treatment in Persons With Multiple Sclerosis: Cognitive and Motor Performances</t>
   </si>
   <si>
-    <t>Evaluation of Immune Response Against Human Papillomavirus (HPV)in Patients With Metastatic Cancer of the Anal Canal</t>
-  </si>
-  <si>
-    <t>Effects of an Aerobic Exercise Program on Cycloergometer Followed by Cold Water Immersion Recovery in Patients With Rheumatoid Arthritis</t>
+    <t>Evaluation in Children of the Psychological Impact of the Visit of a Hospitalized Relative in ICU</t>
+  </si>
+  <si>
+    <t>Cerebrospinal Fluid Movements Through Interventricular Foramina in Phase Contrast Magnetic Resonance Imaging (PC-MRI)</t>
+  </si>
+  <si>
+    <t>Impact of New Biomarkers on the Maintenance of Sinus Rhythm After Cardioversion or Ablation of Atrial Fibrillation</t>
+  </si>
+  <si>
+    <t>Study of the Relative Impact of the Neonatal Fc Receptor (FcRn) and the Therapeutic History on Monoclonal Antibodies Elimination. Proof of the Concept on Patients Treated by Bevacizumab or Trastuzumab in Breast Cancer</t>
+  </si>
+  <si>
+    <t>Targeting Leukemic Stem Cell Expressing the IL-1RAP Protein in Chronic Myelogenous Leukemia (CML)</t>
+  </si>
+  <si>
+    <t>Analysis of DNA Methylation in Spondyloarthritis</t>
+  </si>
+  <si>
+    <t>Prospective Study for Validation of Immunological Biomarkers in Patients With Metastatic Colorectal Cancer</t>
+  </si>
+  <si>
+    <t>Assessment of the Clinical Value of a Docetaxel, Cisplatin and 5-fluorouracil (DCF) Strategy Adapted to Patients for the Management of Metastatic or Locally Advanced Anal Resistant Radiochemotherapy Squamous Cell Anal Carcinoma.</t>
   </si>
   <si>
     <t>Study of Predictive Immunological Parameters of Molecular Complete Remission in Patients With Chronic Myelogenous Leukemia in Chronic Phase and Treated With Tyrosine Kinase Inhibitor</t>
   </si>
   <si>
-    <t>Evaluation in Children of the Psychological Impact of the Visit of a Hospitalized Relative in ICU</t>
-  </si>
-  <si>
-    <t>Analysis of DNA Methylation in Spondyloarthritis</t>
-  </si>
-  <si>
     <t>Determination of the Minimal Effective Concentration (EC90) of Ropivacaine in Axillary Brachial Plexus Block With Intravenous Dexamethasone or Saline Injection</t>
   </si>
   <si>
-    <t>Cerebrospinal Fluid Movements Through Interventricular Foramina in Phase Contrast Magnetic Resonance Imaging (PC-MRI)</t>
-  </si>
-  <si>
-    <t>Targeting Leukemic Stem Cell Expressing the IL-1RAP Protein in Chronic Myelogenous Leukemia (CML)</t>
-  </si>
-  <si>
-    <t>Impact of New Biomarkers on the Maintenance of Sinus Rhythm After Cardioversion or Ablation of Atrial Fibrillation</t>
-  </si>
-  <si>
-    <t>Assessment of the Clinical Value of a Docetaxel, Cisplatin and 5-fluorouracil (DCF) Strategy Adapted to Patients for the Management of Metastatic or Locally Advanced Anal Resistant Radiochemotherapy Squamous Cell Anal Carcinoma.</t>
-  </si>
-  <si>
-    <t>Prospective Study for Validation of Immunological Biomarkers in Patients With Metastatic Colorectal Cancer</t>
-  </si>
-  <si>
-    <t>Study of the Relative Impact of the Neonatal Fc Receptor (FcRn) and the Therapeutic History on Monoclonal Antibodies Elimination. Proof of the Concept on Patients Treated by Bevacizumab or Trastuzumab in Breast Cancer</t>
+    <t>Impact of the Implementation of a qSOFA Score on the Care of Adult Patients Referred to the Emergency Department for Suspected Infection</t>
+  </si>
+  <si>
+    <t>Effects of Long Acting Bronchodilators on CARDiac Autonomic Nervous System Control in Patients With COPD</t>
+  </si>
+  <si>
+    <t>Monitoring of Fetal Lung Elasticity by Elastography Between 24 and 39 Weeks</t>
+  </si>
+  <si>
+    <t>Preliminary Study Concerning the Validity of Parathyroid Exploration on a Discovery NM 530c CZT Camera</t>
+  </si>
+  <si>
+    <t>Study of Viral Load and Maternal-fetal Serology in the Interpretation of the Vertical Transmission of SARS Cov-2 During Pregnancy</t>
+  </si>
+  <si>
+    <t>Study of the Anti-tumoral Immune Response T Cells Cluster of Differentiation 4 (TCD4): Proof of the Concept in Breast Cancer and Glioma</t>
   </si>
   <si>
     <t>Pharmaco-immunological Study of Interferon-alpha and Metronomic Cyclophosphamide Association in Neuroendocrine Tumors</t>
   </si>
   <si>
-    <t>Study of Viral Load and Maternal-fetal Serology in the Interpretation of the Vertical Transmission of SARS Cov-2 During Pregnancy</t>
-  </si>
-  <si>
-    <t>Impact of the Implementation of a qSOFA Score on the Care of Adult Patients Referred to the Emergency Department for Suspected Infection</t>
-  </si>
-  <si>
-    <t>Preliminary Study Concerning the Validity of Parathyroid Exploration on a Discovery NM 530c CZT Camera</t>
-  </si>
-  <si>
-    <t>Monitoring of Fetal Lung Elasticity by Elastography Between 24 and 39 Weeks</t>
-  </si>
-  <si>
-    <t>Effects of Long Acting Bronchodilators on CARDiac Autonomic Nervous System Control in Patients With COPD</t>
-  </si>
-  <si>
-    <t>Study of the Anti-tumoral Immune Response T Cells Cluster of Differentiation 4 (TCD4): Proof of the Concept in Breast Cancer and Glioma</t>
+    <t>tDCS as an add-on Treatment for Resistant Major Depression in Uni- or Bipolar Patients: a Randomized, Double-blind, Placebo Controlled Study</t>
+  </si>
+  <si>
+    <t>Relationship Between Hip Abductor Strength and Ankle Stability</t>
+  </si>
+  <si>
+    <t>Construction of a Mechanical Data Base for Mathematically Modeling Uncertainties in Human Skin Tissues</t>
   </si>
   <si>
     <t>Development of a Software Correlating Simultaneously fMRI, EEG and Peripheral Physiological Activity</t>
   </si>
   <si>
-    <t>Construction of a Mechanical Data Base for Mathematically Modeling Uncertainties in Human Skin Tissues</t>
-  </si>
-  <si>
-    <t>tDCS as an add-on Treatment for Resistant Major Depression in Uni- or Bipolar Patients: a Randomized, Double-blind, Placebo Controlled Study</t>
-  </si>
-  <si>
-    <t>Relationship Between Hip Abductor Strength and Ankle Stability</t>
-  </si>
-  <si>
     <t>Clinical Effectiveness of Hypertonic Sodium Lactate Infusion for Intraoperative Brain Relaxation in Patients Undergoing Scheduled Craniotomy for Supratentorial Brain Tumor Resection: Study Protocol of a Single Center Double-blind Randomized Controlled Phase II Pilot Trial</t>
   </si>
   <si>
+    <t>Normoxemic Versus Hyperoxemic Extracorporeal Oxygenation : Impact on Organ Dysfunction in Patients Supported by Veino-arterial ECMO for Cardiogenic Shock</t>
+  </si>
+  <si>
+    <t>Evaluation of Survival Prognostic Factors for Patients With Exocrine Pancreatic Cancer Resectable or Potentially Resectable : a Multicentre Prospective Cohort</t>
+  </si>
+  <si>
+    <t>Correlating the Measure of Retinal Vascular Density Through Angio-OCT with Calcium Score</t>
+  </si>
+  <si>
+    <t>A Multicenter, Double-blind, Placebo-controlled Randomized Clinical Trial Comparing Two Strategies of Primary Prophylaxis of Spontaneous Bacterial Peritonitis in Severe Cirrhotic Patients With Ascites : Using or Not Using Rifaximin</t>
+  </si>
+  <si>
+    <t>Prospective Feasibility Study of Point-of-care Ultrasound in Suspected Aortic Dissection</t>
+  </si>
+  <si>
     <t>Targeting Interleukin 1 Receptor Accessory Protein (IL1RAP) Expressing Acute Myeloid Leukemic (AML) Cells by Chimeric Antigen Receptor (CAR) Engineered T-cells</t>
   </si>
   <si>
-    <t>Prospective Feasibility Study of Point-of-care Ultrasound in Suspected Aortic Dissection</t>
+    <t>Study of Anti-telomerase T CD4 Immunity in Metastatic Lung Cancer</t>
   </si>
   <si>
     <t>Regorafenib in Combination With Metronomic Cyclophosphamide, Capecitabine, and Low-dose Aspirin in Metastatic Colorectal Cancer Carcinoma An Open-label Phase II</t>
   </si>
   <si>
-    <t>Evaluation of Survival Prognostic Factors for Patients With Exocrine Pancreatic Cancer Resectable or Potentially Resectable : a Multicentre Prospective Cohort</t>
-  </si>
-  <si>
-    <t>Study of Anti-telomerase T CD4 Immunity in Metastatic Lung Cancer</t>
-  </si>
-  <si>
-    <t>Normoxemic Versus Hyperoxemic Extracorporeal Oxygenation : Impact on Organ Dysfunction in Patients Supported by Veino-arterial ECMO for Cardiogenic Shock</t>
-  </si>
-  <si>
-    <t>Correlating the Measure of Retinal Vascular Density Through Angio-OCT with Calcium Score</t>
-  </si>
-  <si>
-    <t>A Multicenter, Double-blind, Placebo-controlled Randomized Clinical Trial Comparing Two Strategies of Primary Prophylaxis of Spontaneous Bacterial Peritonitis in Severe Cirrhotic Patients With Ascites : Using or Not Using Rifaximin</t>
-  </si>
-  <si>
     <t>First Study Evaluating Efficiency and Safety of a Compressive Device to Prevent Keloid Scars Recurrence After Surgery</t>
   </si>
   <si>
     <t>Efficacité en 1ère ligne de traitement d’une polychimiothérapie (méthotrexate, L-asparaginase, idarubicine et dexamethasone) dans la leucémie à cellules dendritiques plasmacytoïdes (LpDC) de l’adulte.</t>
+  </si>
+  <si>
+    <t>Impact of Perceptive, Executive and Emotional Factors on Decision-making in the Context of Pedestrian Crossing in an Industrial Environment Involving Traffic of Autonomous Vehicles (forklifts)</t>
+  </si>
+  <si>
+    <t>Biological Evaluation of a Novel Anti-inflammatory Treatment in Immune-mediated Inflammatory Diseases</t>
+  </si>
+  <si>
+    <t>A Multicenter Randomized Clinical Trial Comparing Two Treatment Strategies to Prevent Rebleeding From Gastric Varices: "Early TIPS" Versus Glue Obliteration</t>
+  </si>
+  <si>
+    <t>Study of Genetic and Cellular Immunological Parameters Predictive of Disease-free Survival in Patients With Metastatic Cancer</t>
   </si>
   <si>
     <t>Evaluation de l’intérêt d’une polychimiothérapie par XELOXIRI-3 chez les patients âgés ou fragiles atteints d’un adénocarcinome pancréatique métastatique 
@@ -654,28 +666,16 @@
     <t>Anticancer Therapeutic Vaccination Using Telomerase-derives Universal Cancer Peptides in Metastatic Non Small Cell Lung Cancer : A Phase I/II Study</t>
   </si>
   <si>
-    <t>A Multicenter Randomized Clinical Trial Comparing Two Treatment Strategies to Prevent Rebleeding From Gastric Varices: "Early TIPS" Versus Glue Obliteration</t>
+    <t>A Phase II Study Evaluating the Interest to Combine UCPVax a CD4 TH1-inducer Cancer Vaccine and Atezolizumab for the Treatment of Human PapillomaVirus Positive Cancers</t>
   </si>
   <si>
     <t>Anticancer Therapeutic Vaccination Using Telomerase-derived Universal Cancer Peptides in Glioblastoma</t>
   </si>
   <si>
-    <t>Study of Genetic and Cellular Immunological Parameters Predictive of Disease-free Survival in Patients With Metastatic Cancer</t>
-  </si>
-  <si>
-    <t>Biological Evaluation of a Novel Anti-inflammatory Treatment in Immune-mediated Inflammatory Diseases</t>
-  </si>
-  <si>
-    <t>A Phase II Study Evaluating the Interest to Combine UCPVax a CD4 TH1-inducer Cancer Vaccine and Atezolizumab for the Treatment of Human PapillomaVirus Positive Cancers</t>
-  </si>
-  <si>
-    <t>Impact of Perceptive, Executive and Emotional Factors on Decision-making in the Context of Pedestrian Crossing in an Industrial Environment Involving Traffic of Autonomous Vehicles (forklifts)</t>
-  </si>
-  <si>
-    <t>Allogenic Immunotherapy Based on Natural Killer Cell Adoptive Transfer in Metastatic Gastrointestinal Carcinoma Treated With Cetuximab : a Phase I Trial</t>
-  </si>
-  <si>
     <t>Evaluation de l'association Fofiri 3 et bévacizumab (Avastin) dans le traitement des cadénocarcinomes colorectaux métastasiques</t>
+  </si>
+  <si>
+    <t>Cabo-POLARIS. Etude de phase 2 prospective multicentrique en ouvert pour évaluer la durée de traitement par cabozantinib chez les patients atteints de carcinome rénal métastatique ou localement avancé en hémodialyse (HD).</t>
   </si>
   <si>
     <t>A phase II study evaluating the interest to combine UCPVax a CD4 TH1-inducer cancer vaccine and atezolizumab for the treatment of HPV positive cancers 
@@ -686,15 +686,15 @@
  Régorafenib en association avec une polychimiothérapie métronomique à base de cyclophosphamide, capecitabine et aspirine à faible dose  dans le traitement des cancers colorectaux métastatiques. Etude de phase II</t>
   </si>
   <si>
-    <t>Cabo-POLARIS. Etude de phase 2 prospective multicentrique en ouvert pour évaluer la durée de traitement par cabozantinib chez les patients atteints de carcinome rénal métastatique ou localement avancé en hémodialyse (HD).</t>
-  </si>
-  <si>
     <t>Etude de phase II, multicentrique, en ouvert, randomisée évaluant l'efficacité et la sécurité SUnitinib administre selon un schéma alteRnatiF chez des patients atteints d’adénocarcinome rénal avancé ou métastatique</t>
   </si>
   <si>
     <t>Etude pilote multicentrique randomisée en double aveugle des effets de la toxine botulique dans le traitement des vestibulodynies</t>
   </si>
   <si>
+    <t>Allogenic Immunotherapy Based on Natural Killer Cell Adoptive Transfer in Metastatic Gastrointestinal Carcinoma Treated With Cetuximab : a Phase I Trial</t>
+  </si>
+  <si>
     <t>TRANSCIAL</t>
   </si>
   <si>
@@ -704,233 +704,245 @@
     <t>CERVECHO</t>
   </si>
   <si>
+    <t>MONRADO1</t>
+  </si>
+  <si>
+    <t>ENDOTANIL</t>
+  </si>
+  <si>
+    <t>DEBRIEF-SIM</t>
+  </si>
+  <si>
+    <t>DEPRESCO</t>
+  </si>
+  <si>
+    <t>IGUS</t>
+  </si>
+  <si>
     <t>REVE</t>
   </si>
   <si>
-    <t>ENDOTANIL</t>
-  </si>
-  <si>
-    <t>IGUS</t>
-  </si>
-  <si>
-    <t>DEPRESCO</t>
-  </si>
-  <si>
-    <t>DEBRIEF-SIM</t>
-  </si>
-  <si>
-    <t>MONRADO1</t>
-  </si>
-  <si>
     <t>METEOR</t>
   </si>
   <si>
+    <t>EXPRED</t>
+  </si>
+  <si>
+    <t>TherMO</t>
+  </si>
+  <si>
+    <t>DESA</t>
+  </si>
+  <si>
     <t>TUBECHO</t>
   </si>
   <si>
     <t>XOLUS</t>
   </si>
   <si>
-    <t>DESA</t>
-  </si>
-  <si>
-    <t>TherMO</t>
-  </si>
-  <si>
-    <t>EXPRED</t>
+    <t>PAPILLAN</t>
+  </si>
+  <si>
+    <t>PEACE</t>
+  </si>
+  <si>
+    <t>OBESOMAC</t>
+  </si>
+  <si>
+    <t>ExSTRESS</t>
   </si>
   <si>
     <t>HYPERSENS</t>
   </si>
   <si>
-    <t>OBESOMAC</t>
-  </si>
-  <si>
-    <t>PEACE</t>
+    <t>DOCTORS</t>
   </si>
   <si>
     <t>PELVI-EOS</t>
   </si>
   <si>
-    <t>PAPILLAN</t>
-  </si>
-  <si>
-    <t>DOCTORS</t>
-  </si>
-  <si>
-    <t>ExSTRESS</t>
+    <t>CDRI</t>
+  </si>
+  <si>
+    <t>MONRADO2</t>
+  </si>
+  <si>
+    <t>RV STAR</t>
+  </si>
+  <si>
+    <t>EURECA</t>
+  </si>
+  <si>
+    <t>ADIPSO</t>
   </si>
   <si>
     <t>IRIS</t>
   </si>
   <si>
-    <t>CDRI</t>
-  </si>
-  <si>
-    <t>ADIPSO</t>
-  </si>
-  <si>
-    <t>ALIM-K</t>
-  </si>
-  <si>
-    <t>EURECA</t>
-  </si>
-  <si>
-    <t>MONRADO2</t>
-  </si>
-  <si>
-    <t>Pgp NACO</t>
+    <t>ELASTOMAP</t>
+  </si>
+  <si>
+    <t>ELOREA</t>
   </si>
   <si>
     <t>ELOREA 
  ELOREA</t>
   </si>
   <si>
-    <t>ELOREA</t>
-  </si>
-  <si>
-    <t>ELASTOMAP</t>
+    <t>Pgp NACO</t>
+  </si>
+  <si>
+    <t>ADEXA</t>
   </si>
   <si>
     <t>ExeQOL</t>
   </si>
   <si>
-    <t>ADEXA</t>
-  </si>
-  <si>
     <t>ADIPRAT</t>
   </si>
   <si>
-    <t>RV STAR</t>
+    <t>ALIM-K</t>
+  </si>
+  <si>
+    <t>GASTROPREP</t>
   </si>
   <si>
     <t>R'EHPAD</t>
   </si>
   <si>
+    <t>OTACLA</t>
+  </si>
+  <si>
+    <t>PAACS</t>
+  </si>
+  <si>
+    <t>MODIMUCOR</t>
+  </si>
+  <si>
     <t>ImSOLENCE</t>
   </si>
   <si>
-    <t>MODIMUCOR</t>
-  </si>
-  <si>
-    <t>PAACS</t>
-  </si>
-  <si>
-    <t>OTACLA</t>
-  </si>
-  <si>
-    <t>GASTROPREP</t>
+    <t>Epitopes-HPV01</t>
+  </si>
+  <si>
+    <t>PROPASPI</t>
   </si>
   <si>
     <t>VESTIBULE</t>
   </si>
   <si>
+    <t>PREXCRIM</t>
+  </si>
+  <si>
     <t>FAMPISEP</t>
   </si>
   <si>
-    <t>PROPASPI</t>
-  </si>
-  <si>
-    <t>Epitopes-HPV01</t>
-  </si>
-  <si>
-    <t>PREXCRIM</t>
+    <t>ENVIFAR</t>
+  </si>
+  <si>
+    <t>MLCSFIV</t>
+  </si>
+  <si>
+    <t>Biorhythm</t>
+  </si>
+  <si>
+    <t>PK-MAB</t>
+  </si>
+  <si>
+    <t>CAR-LMC</t>
+  </si>
+  <si>
+    <t>METYLAS</t>
+  </si>
+  <si>
+    <t>Epitopes-CRC02</t>
+  </si>
+  <si>
+    <t>Epitopes-HPV02</t>
   </si>
   <si>
     <t>PAMIR01</t>
   </si>
   <si>
-    <t>ENVIFAR</t>
-  </si>
-  <si>
-    <t>METYLAS</t>
-  </si>
-  <si>
     <t>AxiRopiDexa</t>
   </si>
   <si>
-    <t>MLCSFIV</t>
-  </si>
-  <si>
-    <t>CAR-LMC</t>
-  </si>
-  <si>
-    <t>Biorhythm</t>
-  </si>
-  <si>
-    <t>Epitopes-HPV02</t>
-  </si>
-  <si>
-    <t>Epitopes-CRC02</t>
-  </si>
-  <si>
-    <t>PK-MAB</t>
+    <t>qSOFA2</t>
+  </si>
+  <si>
+    <t>LAB-Card</t>
+  </si>
+  <si>
+    <t>ELASTOPULM</t>
+  </si>
+  <si>
+    <t>PARAT-CZT</t>
+  </si>
+  <si>
+    <t>TRANSCOVID</t>
+  </si>
+  <si>
+    <t>ERISA</t>
   </si>
   <si>
     <t>EPICentro</t>
   </si>
   <si>
-    <t>TRANSCOVID</t>
-  </si>
-  <si>
-    <t>qSOFA2</t>
-  </si>
-  <si>
-    <t>PARAT-CZT</t>
-  </si>
-  <si>
-    <t>ELASTOPULM</t>
-  </si>
-  <si>
-    <t>LAB-Card</t>
-  </si>
-  <si>
-    <t>ERISA</t>
+    <t>STICODEP</t>
+  </si>
+  <si>
+    <t>HIAS</t>
+  </si>
+  <si>
+    <t>SKUM</t>
   </si>
   <si>
     <t>NEUREXPLO</t>
   </si>
   <si>
-    <t>SKUM</t>
-  </si>
-  <si>
-    <t>STICODEP</t>
-  </si>
-  <si>
-    <t>HIAS</t>
-  </si>
-  <si>
     <t>LSD</t>
   </si>
   <si>
+    <t>ECMOxy</t>
+  </si>
+  <si>
+    <t>Pancreas-CGE</t>
+  </si>
+  <si>
+    <t>ANOSCA</t>
+  </si>
+  <si>
+    <t>ProPILARifax</t>
+  </si>
+  <si>
+    <t>FESDAU</t>
+  </si>
+  <si>
     <t>CAR-LAM</t>
   </si>
   <si>
-    <t>FESDAU</t>
+    <t>Telocap02</t>
   </si>
   <si>
     <t>REPROGRAM-01</t>
   </si>
   <si>
-    <t>Pancreas-CGE</t>
-  </si>
-  <si>
-    <t>Telocap02</t>
-  </si>
-  <si>
-    <t>ECMOxy</t>
-  </si>
-  <si>
-    <t>ANOSCA</t>
-  </si>
-  <si>
-    <t>ProPILARifax</t>
-  </si>
-  <si>
     <t>SCARWARS</t>
   </si>
   <si>
     <t>LpDessai-01</t>
+  </si>
+  <si>
+    <t>VASIS</t>
+  </si>
+  <si>
+    <t>Super-Bio</t>
+  </si>
+  <si>
+    <t>GAVAPROSEC</t>
+  </si>
+  <si>
+    <t>Epitopes-CRC01</t>
   </si>
   <si>
     <t>ALIX 
@@ -940,28 +952,13 @@
     <t>UCPVax</t>
   </si>
   <si>
-    <t>GAVAPROSEC</t>
+    <t>VolATIL</t>
   </si>
   <si>
     <t>UCPVax-Glio</t>
   </si>
   <si>
-    <t>Epitopes-CRC01</t>
-  </si>
-  <si>
-    <t>Super-Bio</t>
-  </si>
-  <si>
-    <t>VolATIL</t>
-  </si>
-  <si>
-    <t>VASIS</t>
-  </si>
-  <si>
-    <t>NK-EGFR01</t>
-  </si>
-  <si>
-    <t>EROS</t>
+    <t>Cabo-POLARIS</t>
   </si>
   <si>
     <t>VolATIL study 
@@ -972,12 +969,15 @@
  REPROGRAM-01</t>
   </si>
   <si>
-    <t>Cabo-POLARIS</t>
-  </si>
-  <si>
     <t>SURF</t>
   </si>
   <si>
+    <t>NK-EGFR01</t>
+  </si>
+  <si>
+    <t>EROS</t>
+  </si>
+  <si>
     <t>PROCEDURE</t>
   </si>
   <si>
@@ -990,10 +990,10 @@
     <t>DRUG</t>
   </si>
   <si>
+    <t>BEHAVIORAL</t>
+  </si>
+  <si>
     <t>DEVICE</t>
-  </si>
-  <si>
-    <t>BEHAVIORAL</t>
   </si>
   <si>
     <t>RADIATION</t>
@@ -1477,11 +1477,8 @@
       <c r="G5" t="s">
         <v>134</v>
       </c>
-      <c r="H5" t="s">
-        <v>227</v>
-      </c>
       <c r="I5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1500,16 +1497,19 @@
       <c r="G6" t="s">
         <v>135</v>
       </c>
+      <c r="H6" t="s">
+        <v>227</v>
+      </c>
       <c r="I6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -1524,7 +1524,7 @@
         <v>228</v>
       </c>
       <c r="I7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1570,7 +1570,7 @@
         <v>230</v>
       </c>
       <c r="I9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1593,7 +1593,7 @@
         <v>231</v>
       </c>
       <c r="I10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1616,15 +1616,15 @@
         <v>232</v>
       </c>
       <c r="I11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1639,15 +1639,15 @@
         <v>233</v>
       </c>
       <c r="I12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1658,16 +1658,19 @@
       <c r="G13" t="s">
         <v>142</v>
       </c>
+      <c r="H13" t="s">
+        <v>234</v>
+      </c>
       <c r="I13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1678,11 +1681,8 @@
       <c r="G14" t="s">
         <v>143</v>
       </c>
-      <c r="H14" t="s">
-        <v>234</v>
-      </c>
       <c r="I14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1710,10 +1710,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
@@ -1728,7 +1728,7 @@
         <v>236</v>
       </c>
       <c r="I16" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1774,15 +1774,15 @@
         <v>238</v>
       </c>
       <c r="I18" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
@@ -1797,15 +1797,15 @@
         <v>239</v>
       </c>
       <c r="I19" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
@@ -1820,15 +1820,15 @@
         <v>240</v>
       </c>
       <c r="I20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
@@ -1848,10 +1848,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
@@ -1871,10 +1871,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
@@ -1882,19 +1882,22 @@
       <c r="F23" t="s">
         <v>122</v>
       </c>
+      <c r="G23" t="s">
+        <v>152</v>
+      </c>
       <c r="H23" t="s">
         <v>243</v>
       </c>
       <c r="I23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -1903,13 +1906,13 @@
         <v>122</v>
       </c>
       <c r="G24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H24" t="s">
         <v>244</v>
       </c>
       <c r="I24" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1926,7 +1929,7 @@
         <v>122</v>
       </c>
       <c r="G25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H25" t="s">
         <v>245</v>
@@ -1937,10 +1940,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
@@ -1948,22 +1951,19 @@
       <c r="F26" t="s">
         <v>122</v>
       </c>
-      <c r="G26" t="s">
-        <v>154</v>
-      </c>
       <c r="H26" t="s">
         <v>246</v>
       </c>
       <c r="I26" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
@@ -1978,15 +1978,15 @@
         <v>247</v>
       </c>
       <c r="I27" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
         <v>43</v>
@@ -2006,10 +2006,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
@@ -2024,7 +2024,7 @@
         <v>249</v>
       </c>
       <c r="I29" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2052,10 +2052,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
         <v>46</v>
@@ -2075,10 +2075,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
         <v>47</v>
@@ -2093,15 +2093,15 @@
         <v>252</v>
       </c>
       <c r="I32" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
@@ -2116,7 +2116,7 @@
         <v>253</v>
       </c>
       <c r="I33" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2126,8 +2126,8 @@
       <c r="B34" t="s">
         <v>14</v>
       </c>
-      <c r="D34" t="s">
-        <v>106</v>
+      <c r="C34" t="s">
+        <v>49</v>
       </c>
       <c r="F34" t="s">
         <v>123</v>
@@ -2138,6 +2138,9 @@
       <c r="H34" t="s">
         <v>254</v>
       </c>
+      <c r="I34" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
@@ -2146,8 +2149,8 @@
       <c r="B35" t="s">
         <v>14</v>
       </c>
-      <c r="C35" t="s">
-        <v>49</v>
+      <c r="D35" t="s">
+        <v>106</v>
       </c>
       <c r="F35" t="s">
         <v>123</v>
@@ -2158,16 +2161,13 @@
       <c r="H35" t="s">
         <v>255</v>
       </c>
-      <c r="I35" t="s">
-        <v>321</v>
-      </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
         <v>50</v>
@@ -2182,15 +2182,15 @@
         <v>256</v>
       </c>
       <c r="I36" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
         <v>51</v>
@@ -2210,10 +2210,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
         <v>52</v>
@@ -2274,7 +2274,7 @@
         <v>260</v>
       </c>
       <c r="I40" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2297,7 +2297,7 @@
         <v>261</v>
       </c>
       <c r="I41" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2320,15 +2320,15 @@
         <v>262</v>
       </c>
       <c r="I42" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
         <v>57</v>
@@ -2343,7 +2343,7 @@
         <v>263</v>
       </c>
       <c r="I43" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2371,10 +2371,10 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
         <v>59</v>
@@ -2389,7 +2389,7 @@
         <v>265</v>
       </c>
       <c r="I45" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2428,6 +2428,9 @@
       <c r="F47" t="s">
         <v>125</v>
       </c>
+      <c r="G47" t="s">
+        <v>175</v>
+      </c>
       <c r="H47" t="s">
         <v>267</v>
       </c>
@@ -2437,10 +2440,10 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
         <v>62</v>
@@ -2448,22 +2451,19 @@
       <c r="F48" t="s">
         <v>125</v>
       </c>
-      <c r="G48" t="s">
-        <v>175</v>
-      </c>
       <c r="H48" t="s">
         <v>268</v>
       </c>
       <c r="I48" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
         <v>63</v>
@@ -2475,7 +2475,7 @@
         <v>269</v>
       </c>
       <c r="I49" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2498,15 +2498,15 @@
         <v>270</v>
       </c>
       <c r="I50" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
         <v>65</v>
@@ -2521,7 +2521,7 @@
         <v>271</v>
       </c>
       <c r="I51" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2567,15 +2567,15 @@
         <v>273</v>
       </c>
       <c r="I53" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
         <v>68</v>
@@ -2590,7 +2590,7 @@
         <v>274</v>
       </c>
       <c r="I54" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2613,7 +2613,7 @@
         <v>275</v>
       </c>
       <c r="I55" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2636,7 +2636,7 @@
         <v>276</v>
       </c>
       <c r="I56" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2664,10 +2664,10 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
         <v>72</v>
@@ -2682,7 +2682,7 @@
         <v>278</v>
       </c>
       <c r="I58" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2710,10 +2710,10 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
         <v>74</v>
@@ -2751,7 +2751,7 @@
         <v>281</v>
       </c>
       <c r="I61" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2774,7 +2774,7 @@
         <v>282</v>
       </c>
       <c r="I62" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2797,15 +2797,15 @@
         <v>283</v>
       </c>
       <c r="I63" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s">
         <v>78</v>
@@ -2820,7 +2820,7 @@
         <v>284</v>
       </c>
       <c r="I64" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2843,15 +2843,15 @@
         <v>285</v>
       </c>
       <c r="I65" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
         <v>80</v>
@@ -2866,7 +2866,7 @@
         <v>286</v>
       </c>
       <c r="I66" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2889,7 +2889,7 @@
         <v>287</v>
       </c>
       <c r="I67" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2912,7 +2912,7 @@
         <v>288</v>
       </c>
       <c r="I68" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2935,15 +2935,15 @@
         <v>289</v>
       </c>
       <c r="I69" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
         <v>84</v>
@@ -2958,7 +2958,7 @@
         <v>290</v>
       </c>
       <c r="I70" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2981,15 +2981,15 @@
         <v>291</v>
       </c>
       <c r="I71" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
         <v>86</v>
@@ -3004,7 +3004,7 @@
         <v>292</v>
       </c>
       <c r="I72" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3032,10 +3032,10 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
         <v>88</v>
@@ -3050,7 +3050,7 @@
         <v>294</v>
       </c>
       <c r="I74" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3096,7 +3096,7 @@
         <v>296</v>
       </c>
       <c r="I76" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3119,7 +3119,7 @@
         <v>297</v>
       </c>
       <c r="I77" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3147,10 +3147,10 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C79" t="s">
         <v>93</v>
@@ -3165,7 +3165,7 @@
         <v>299</v>
       </c>
       <c r="I79" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3234,7 +3234,7 @@
         <v>302</v>
       </c>
       <c r="I82" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3264,8 +3264,8 @@
       <c r="B84" t="s">
         <v>14</v>
       </c>
-      <c r="D84" t="s">
-        <v>108</v>
+      <c r="C84" t="s">
+        <v>97</v>
       </c>
       <c r="F84" t="s">
         <v>130</v>
@@ -3276,16 +3276,19 @@
       <c r="H84" t="s">
         <v>304</v>
       </c>
+      <c r="I84" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F85" t="s">
         <v>130</v>
@@ -3297,7 +3300,7 @@
         <v>305</v>
       </c>
       <c r="I85" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3308,7 +3311,7 @@
         <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F86" t="s">
         <v>130</v>
@@ -3331,7 +3334,7 @@
         <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F87" t="s">
         <v>130</v>
@@ -3343,7 +3346,7 @@
         <v>307</v>
       </c>
       <c r="I87" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3353,8 +3356,8 @@
       <c r="B88" t="s">
         <v>14</v>
       </c>
-      <c r="C88" t="s">
-        <v>100</v>
+      <c r="D88" t="s">
+        <v>108</v>
       </c>
       <c r="F88" t="s">
         <v>130</v>
@@ -3365,16 +3368,13 @@
       <c r="H88" t="s">
         <v>308</v>
       </c>
-      <c r="I88" t="s">
-        <v>320</v>
-      </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
         <v>101</v>
@@ -3389,7 +3389,7 @@
         <v>309</v>
       </c>
       <c r="I89" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3435,7 +3435,7 @@
         <v>311</v>
       </c>
       <c r="I91" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3445,18 +3445,12 @@
       <c r="B92" t="s">
         <v>14</v>
       </c>
-      <c r="C92" t="s">
-        <v>104</v>
+      <c r="D92" t="s">
+        <v>109</v>
       </c>
       <c r="G92" t="s">
         <v>218</v>
       </c>
-      <c r="H92" t="s">
-        <v>312</v>
-      </c>
-      <c r="I92" t="s">
-        <v>319</v>
-      </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
@@ -3465,14 +3459,14 @@
       <c r="B93" t="s">
         <v>14</v>
       </c>
-      <c r="C93" t="s">
-        <v>105</v>
+      <c r="D93" t="s">
+        <v>110</v>
+      </c>
+      <c r="G93" t="s">
+        <v>219</v>
       </c>
       <c r="H93" t="s">
-        <v>313</v>
-      </c>
-      <c r="I93" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3483,10 +3477,13 @@
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G94" t="s">
-        <v>219</v>
+        <v>220</v>
+      </c>
+      <c r="H94" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3497,10 +3494,10 @@
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G95" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H95" t="s">
         <v>314</v>
@@ -3514,16 +3511,16 @@
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G96" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H96" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -3531,47 +3528,50 @@
         <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G97" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H97" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" t="s">
+        <v>104</v>
+      </c>
+      <c r="G98" t="s">
+        <v>224</v>
+      </c>
+      <c r="H98" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" t="s">
-        <v>10</v>
-      </c>
-      <c r="B98" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98" t="s">
-        <v>113</v>
-      </c>
-      <c r="G98" t="s">
-        <v>223</v>
-      </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" t="s">
+        <v>105</v>
+      </c>
+      <c r="H99" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" t="s">
-        <v>10</v>
-      </c>
-      <c r="B99" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" t="s">
-        <v>114</v>
-      </c>
-      <c r="G99" t="s">
-        <v>224</v>
-      </c>
-      <c r="H99" t="s">
-        <v>267</v>
+      <c r="I99" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/0084te143/liste_essais_cliniques_identifies_0084te143.xlsx
+++ b/publipostage2/0084te143/liste_essais_cliniques_identifies_0084te143.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="352">
   <si>
     <t>statut</t>
   </si>
@@ -55,16 +55,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00701792</t>
@@ -76,30 +76,30 @@
     <t>NCT02841124</t>
   </si>
   <si>
+    <t>NCT01742845</t>
+  </si>
+  <si>
     <t>NCT00243477</t>
   </si>
   <si>
-    <t>NCT01742845</t>
+    <t>NCT01428804</t>
+  </si>
+  <si>
+    <t>NCT02093143</t>
+  </si>
+  <si>
+    <t>NCT01835951</t>
+  </si>
+  <si>
+    <t>NCT01360658</t>
+  </si>
+  <si>
+    <t>NCT02879565</t>
   </si>
   <si>
     <t>NCT02851836</t>
   </si>
   <si>
-    <t>NCT02093143</t>
-  </si>
-  <si>
-    <t>NCT01835951</t>
-  </si>
-  <si>
-    <t>NCT01428804</t>
-  </si>
-  <si>
-    <t>NCT01360658</t>
-  </si>
-  <si>
-    <t>NCT02879565</t>
-  </si>
-  <si>
     <t>NCT00498589</t>
   </si>
   <si>
@@ -109,160 +109,169 @@
     <t>NCT01008228</t>
   </si>
   <si>
+    <t>NCT02262130</t>
+  </si>
+  <si>
     <t>NCT02862288</t>
   </si>
   <si>
+    <t>NCT02362568</t>
+  </si>
+  <si>
     <t>NCT02845817</t>
   </si>
   <si>
-    <t>NCT02362568</t>
-  </si>
-  <si>
-    <t>NCT02262130</t>
+    <t>NCT02902458</t>
+  </si>
+  <si>
+    <t>NCT01743274</t>
   </si>
   <si>
     <t>NCT02862795</t>
   </si>
   <si>
-    <t>NCT02902458</t>
+    <t>NCT03056404</t>
+  </si>
+  <si>
+    <t>NCT02834897</t>
+  </si>
+  <si>
+    <t>NCT01969149</t>
   </si>
   <si>
     <t>NCT02588469</t>
   </si>
   <si>
-    <t>NCT01969149</t>
-  </si>
-  <si>
-    <t>NCT03056404</t>
-  </si>
-  <si>
-    <t>NCT01743274</t>
-  </si>
-  <si>
-    <t>NCT02834897</t>
+    <t>NCT02849795</t>
+  </si>
+  <si>
+    <t>NCT01768949</t>
+  </si>
+  <si>
+    <t>NCT02862327</t>
+  </si>
+  <si>
+    <t>NCT02432976</t>
+  </si>
+  <si>
+    <t>NCT02116270</t>
   </si>
   <si>
     <t>NCT02573298</t>
   </si>
   <si>
+    <t>NCT02843789</t>
+  </si>
+  <si>
+    <t>NCT02151214</t>
+  </si>
+  <si>
+    <t>NCT02301715</t>
+  </si>
+  <si>
+    <t>NCT02858414</t>
+  </si>
+  <si>
     <t>NCT02851810</t>
   </si>
   <si>
-    <t>NCT01768949</t>
-  </si>
-  <si>
-    <t>NCT02858414</t>
-  </si>
-  <si>
-    <t>NCT02849795</t>
-  </si>
-  <si>
-    <t>NCT02116270</t>
-  </si>
-  <si>
     <t>NCT02870608</t>
   </si>
   <si>
-    <t>NCT02301715</t>
-  </si>
-  <si>
     <t>NCT02103101</t>
   </si>
   <si>
-    <t>NCT02862327</t>
-  </si>
-  <si>
-    <t>NCT02432976</t>
-  </si>
-  <si>
-    <t>NCT02843789</t>
-  </si>
-  <si>
-    <t>NCT02151214</t>
-  </si>
-  <si>
     <t>NCT03706846</t>
   </si>
   <si>
+    <t>NCT02847143</t>
+  </si>
+  <si>
     <t>NCT03248999</t>
   </si>
   <si>
-    <t>NCT02847143</t>
+    <t>NCT02845934</t>
   </si>
   <si>
     <t>NCT02820987</t>
   </si>
   <si>
-    <t>NCT02845934</t>
-  </si>
-  <si>
     <t>NCT02870712</t>
   </si>
   <si>
+    <t>NCT03911830</t>
+  </si>
+  <si>
+    <t>NCT02858219</t>
+  </si>
+  <si>
+    <t>NCT02862314</t>
+  </si>
+  <si>
     <t>NCT01845779</t>
   </si>
   <si>
-    <t>NCT02862314</t>
-  </si>
-  <si>
-    <t>NCT02858219</t>
-  </si>
-  <si>
-    <t>NCT03911830</t>
-  </si>
-  <si>
     <t>NCT02849782</t>
   </si>
   <si>
+    <t>NCT02842320</t>
+  </si>
+  <si>
+    <t>NCT03688269</t>
+  </si>
+  <si>
+    <t>NCT02855775</t>
+  </si>
+  <si>
     <t>NCT03954522</t>
   </si>
   <si>
+    <t>NCT03351816</t>
+  </si>
+  <si>
+    <t>NCT02842333</t>
+  </si>
+  <si>
     <t>NCT04145414</t>
   </si>
   <si>
-    <t>NCT03351816</t>
-  </si>
-  <si>
-    <t>NCT02855775</t>
-  </si>
-  <si>
-    <t>NCT02842320</t>
+    <t>NCT02817178</t>
+  </si>
+  <si>
+    <t>NCT02402842</t>
   </si>
   <si>
     <t>NCT03092583</t>
   </si>
   <si>
-    <t>NCT02817178</t>
-  </si>
-  <si>
-    <t>NCT02402842</t>
-  </si>
-  <si>
-    <t>NCT02842333</t>
-  </si>
-  <si>
-    <t>NCT03688269</t>
+    <t>NCT02854644</t>
+  </si>
+  <si>
+    <t>NCT02838342</t>
+  </si>
+  <si>
+    <t>NCT02872090</t>
+  </si>
+  <si>
+    <t>NCT02854345</t>
+  </si>
+  <si>
+    <t>NCT02934867</t>
   </si>
   <si>
     <t>NCT04568746</t>
   </si>
   <si>
-    <t>NCT02872090</t>
+    <t>NCT04402918</t>
   </si>
   <si>
     <t>NCT03834805</t>
   </si>
   <si>
-    <t>NCT02854345</t>
-  </si>
-  <si>
-    <t>NCT04402918</t>
-  </si>
-  <si>
-    <t>NCT02854644</t>
-  </si>
-  <si>
-    <t>NCT02838342</t>
+    <t>NCT03753620</t>
+  </si>
+  <si>
+    <t>NCT03318601</t>
   </si>
   <si>
     <t>NCT01644747</t>
@@ -271,84 +280,102 @@
     <t>NCT05236816</t>
   </si>
   <si>
+    <t>NCT02531542</t>
+  </si>
+  <si>
     <t>NCT04995549</t>
   </si>
   <si>
-    <t>NCT03753620</t>
+    <t>NCT03967795</t>
+  </si>
+  <si>
+    <t>NCT02818907</t>
+  </si>
+  <si>
+    <t>NCT02846103</t>
+  </si>
+  <si>
+    <t>NCT04990349</t>
+  </si>
+  <si>
+    <t>NCT03312166</t>
+  </si>
+  <si>
+    <t>NCT03069131</t>
+  </si>
+  <si>
+    <t>NCT04534218</t>
+  </si>
+  <si>
+    <t>NCT04169022</t>
+  </si>
+  <si>
+    <t>NCT05897476</t>
+  </si>
+  <si>
+    <t>NCT05624255</t>
   </si>
   <si>
     <t>NCT04488874</t>
   </si>
   <si>
-    <t>NCT04990349</t>
-  </si>
-  <si>
-    <t>NCT02818907</t>
-  </si>
-  <si>
-    <t>NCT05624255</t>
-  </si>
-  <si>
-    <t>NCT03069131</t>
-  </si>
-  <si>
-    <t>NCT05897476</t>
-  </si>
-  <si>
-    <t>NCT04169022</t>
-  </si>
-  <si>
-    <t>NCT02846103</t>
-  </si>
-  <si>
-    <t>NCT04534218</t>
-  </si>
-  <si>
-    <t>NCT03312166</t>
+    <t>NCT04280848</t>
+  </si>
+  <si>
+    <t>NCT02818426</t>
+  </si>
+  <si>
+    <t>NCT04263051</t>
+  </si>
+  <si>
+    <t>NCT03705078</t>
+  </si>
+  <si>
+    <t>NCT02838381</t>
+  </si>
+  <si>
+    <t>NCT03946358</t>
+  </si>
+  <si>
+    <t>NCT02839278</t>
   </si>
   <si>
     <t>NCT06255275</t>
   </si>
   <si>
-    <t>NCT02839278</t>
-  </si>
-  <si>
-    <t>NCT03705078</t>
-  </si>
-  <si>
-    <t>NCT02838381</t>
-  </si>
-  <si>
-    <t>NCT02818426</t>
-  </si>
-  <si>
-    <t>NCT03946358</t>
-  </si>
-  <si>
-    <t>NCT04280848</t>
+    <t>NCT02821559</t>
   </si>
   <si>
     <t>NCT02845999</t>
   </si>
   <si>
-    <t>NCT02821559</t>
-  </si>
-  <si>
     <t>2013-000029-29</t>
   </si>
   <si>
+    <t>2014-001789-81</t>
+  </si>
+  <si>
+    <t>2015-001712-35</t>
+  </si>
+  <si>
+    <t>2019-003805-82</t>
+  </si>
+  <si>
+    <t>2019-001720-35</t>
+  </si>
+  <si>
     <t>2018-001644-61</t>
   </si>
   <si>
-    <t>2019-001720-35</t>
+    <t>2021-005549-34</t>
+  </si>
+  <si>
+    <t>2018-002482-18</t>
   </si>
   <si>
     <t>2006-005110-12</t>
   </si>
   <si>
-    <t>2021-005549-34</t>
-  </si>
-  <si>
     <t>2019-000881-39</t>
   </si>
   <si>
@@ -358,6 +385,9 @@
     <t>2015-002575-16</t>
   </si>
   <si>
+    <t>2011-005811-96</t>
+  </si>
+  <si>
     <t>2009-016513-26</t>
   </si>
   <si>
@@ -418,30 +448,30 @@
     <t>Decision to Limit or Withdraw Specific Therapies for Advanced Cancer and Hematological Malignancies : Physicians and Patients Points of View and Interactions.</t>
   </si>
   <si>
+    <t>Ultrasound-guided Intermediate Cervical Block Versus Superficial Cervical Block for Carotid : a Randomised Controlled Trial</t>
+  </si>
+  <si>
     <t>MOTIV Study. Effect of Antidepressive Treatment by Escitalopram Started Preoperatively in Patients Undergoing Coronary Artery Bypass Grafting</t>
   </si>
   <si>
-    <t>Ultrasound-guided Intermediate Cervical Block Versus Superficial Cervical Block for Carotid : a Randomised Controlled Trial</t>
+    <t>Pilot Study of Feasibility of the Effect of Treatment With tDCS in Patients Suffering From Resistant Depression</t>
+  </si>
+  <si>
+    <t>Evaluation of the Impact of Adding Remifentanil to Propofol on the Conditions of the Diagnostic Panendoscopy of the Upper Airway Under General Anesthesia With Tubeless Spontaneous Ventilation.</t>
+  </si>
+  <si>
+    <t>Individual Versus Grouped Debriefing Approaches in Anaesthesia Crisis Simulation-Based Training. What Impact On The Technical Score ?</t>
+  </si>
+  <si>
+    <t>Phase 2 Multicentric Study Evaluating the Efficacy of Polyvalent Intravenous Immunoglobulins in Idiopathic Severe and Refractory Solar Urticaria</t>
+  </si>
+  <si>
+    <t>Families Expectations and Hope Raised by an Evaluation of Consciousness in Patients With an Unresponsive Wakefulness Syndrome</t>
   </si>
   <si>
     <t>Validation of an Attachment Picture Set in School-adolescent</t>
   </si>
   <si>
-    <t>Evaluation of the Impact of Adding Remifentanil to Propofol on the Conditions of the Diagnostic Panendoscopy of the Upper Airway Under General Anesthesia With Tubeless Spontaneous Ventilation.</t>
-  </si>
-  <si>
-    <t>Individual Versus Grouped Debriefing Approaches in Anaesthesia Crisis Simulation-Based Training. What Impact On The Technical Score ?</t>
-  </si>
-  <si>
-    <t>Pilot Study of Feasibility of the Effect of Treatment With tDCS in Patients Suffering From Resistant Depression</t>
-  </si>
-  <si>
-    <t>Phase 2 Multicentric Study Evaluating the Efficacy of Polyvalent Intravenous Immunoglobulins in Idiopathic Severe and Refractory Solar Urticaria</t>
-  </si>
-  <si>
-    <t>Families Expectations and Hope Raised by an Evaluation of Consciousness in Patients With an Unresponsive Wakefulness Syndrome</t>
-  </si>
-  <si>
     <t>A Controlled, Randomized, Double-blind, Multicenter Study, Comparing Methotrexate vs Placebo in Corticosteroid-dependent Ulcerative Colitis</t>
   </si>
   <si>
@@ -451,155 +481,164 @@
     <t>Comparison of Efficacity of Simple Aspiration Versus Standard Drainage in the Management of Large Size Primary Spontaneous Pneumothorax</t>
   </si>
   <si>
+    <t>Phase 2 Multicentric Study Evaluating the Efficacy of Omalizumab in Idiopathic Severe and Refractory Solar Urticaria</t>
+  </si>
+  <si>
     <t>Preliminary Study of Microwave Tumoral Ablation Performances for the Treatment of Pulmonary, Renal and Bone Neoplasia.</t>
   </si>
   <si>
+    <t>Human Study of Interest on Cervical Ultrasound Exploration for Association With Criteria of Difficult Intubation in General Surgery</t>
+  </si>
+  <si>
     <t>Requests for Euthanasia and Assisted Suicide: a Prospective, Multicenter and Qualitative Study of Their Frequency and Characteristics, of Patients' Motivations and Their Evolution</t>
   </si>
   <si>
-    <t>Human Study of Interest on Cervical Ultrasound Exploration for Association With Criteria of Difficult Intubation in General Surgery</t>
-  </si>
-  <si>
-    <t>Phase 2 Multicentric Study Evaluating the Efficacy of Omalizumab in Idiopathic Severe and Refractory Solar Urticaria</t>
+    <t>Psychological Intervention modifiEs Outcome of Patients With implAntable Cardioverter dEfibrillator: The PEACE Study</t>
+  </si>
+  <si>
+    <t>Does Optical Coherence Tomography Optimise Results of Stenting: The DOCTORS Study</t>
   </si>
   <si>
     <t>Human PapillomaVirus (HPV) Anal Infection: Study of Prevalence and Risk Factors Among 1000 Patients Benefiting From a Colonoscopy</t>
   </si>
   <si>
-    <t>Psychological Intervention modifiEs Outcome of Patients With implAntable Cardioverter dEfibrillator: The PEACE Study</t>
+    <t>Research for Specific Proteins of Interest for the Serological Diagnosis of Bird Fancier's Lung</t>
+  </si>
+  <si>
+    <t>Intravenous Exenatide (Byetta®) Versus Insulin for Perioperative Glycemic Control in Cardiac Surgery: the Open-labeled Randomized Phase II/III ExStress Study</t>
   </si>
   <si>
     <t>Effects of Exercise and Venous Compression on Upper Airway Resistance in Obese Teenagers With Obstructive Sleep Apnea Syndrome</t>
-  </si>
-  <si>
-    <t>Intravenous Exenatide (Byetta®) Versus Insulin for Perioperative Glycemic Control in Cardiac Surgery: the Open-labeled Randomized Phase II/III ExStress Study</t>
-  </si>
-  <si>
-    <t>Research for Specific Proteins of Interest for the Serological Diagnosis of Bird Fancier's Lung</t>
-  </si>
-  <si>
-    <t>Does Optical Coherence Tomography Optimise Results of Stenting: The DOCTORS Study</t>
-  </si>
-  <si>
-    <t>Cryotherapy and Doppler in Inflammatory Rheumatic Diseases</t>
-  </si>
-  <si>
-    <t>Oculomotor and Neurophysiological Markers of Emotion Regulation and Attachment Styles in Adolescence</t>
-  </si>
-  <si>
-    <t>Identification of Echocardiographic Criteria Predictive of the Inefficacy and/or the Unsafeness of Recruitment Maneuvers in Patients Suffering From Acute Respiratory Distress Syndrome</t>
-  </si>
-  <si>
-    <t>Exploratory Study of Cellular Reservoirs in Blood From HIV Infected Patients: EURECA (ERANET to Unravel New Roads to Eradication and a Cure for AIDS) Study</t>
-  </si>
-  <si>
-    <t>Evaluation of Adipokines and Fat Tissue in Psoriasis and Psoriatic Arthritis and Assessment of Their Relations With the Risk of Cardiovascular Disease</t>
-  </si>
-  <si>
-    <t>Accelerated Immunosenescence and Chronic Kidney Disease</t>
-  </si>
-  <si>
-    <t>Interest of Measuring Lung Elasticity ELASTOgraphy in the Fetus in the Case of PreMAture Childbirth Threat</t>
-  </si>
-  <si>
-    <t>Effects of Intranasal Oxytocin on Emotion Regulation to Stressful Interaction in Insecure Adolescents: a Study Protocol for a Double Blind Randomized Controlled Trial</t>
   </si>
   <si>
     <t>Study of the effect of oxytocin on emotion regulation in adolescents with insecure attachment 
  Etude de l'effet de l'ocytocine sur la régulation émotionnelle chez des adolescents à l’attachement insécure</t>
   </si>
   <si>
+    <t>Evaluation of Adipokines and Fat Tissue in Psoriasis and Psoriatic Arthritis and Assessment of Their Relations With the Risk of Cardiovascular Disease</t>
+  </si>
+  <si>
+    <t>Identification of Echocardiographic Criteria Predictive of the Inefficacy and/or the Unsafeness of Recruitment Maneuvers in Patients Suffering From Acute Respiratory Distress Syndrome</t>
+  </si>
+  <si>
+    <t>Intravenous Dexamethasone Versus Placebo for Ultrasound Guided Axillary Brachial Plexus Block With Ropivacaine: Randomised, Controlled, Clinical Trial</t>
+  </si>
+  <si>
+    <t>Impact of Intravenous Exenatide Versus Insulin on Quality of Life in Cardiac Surgery Patients: an Ancillary Study of the ExSTRESS Phase II/III Clinical Trial</t>
+  </si>
+  <si>
+    <t>Accelerated Immunosenescence and Chronic Kidney Disease</t>
+  </si>
+  <si>
+    <t>Cryotherapy and Doppler in Inflammatory Rheumatic Diseases</t>
+  </si>
+  <si>
+    <t>Evolution of Adipokines and Body Composition in Rheumatoid Arthritis Patients Receiving Tocilizumab Therapy</t>
+  </si>
+  <si>
+    <t>Prospective, Multicenter, Randomized Controlled Study Evaluating the Efficacy of Parenteral Nutrition on the Quality of Life and Overall Survival in Patients in the Palliative Phase of Cancer.</t>
+  </si>
+  <si>
+    <t>Effects of Intranasal Oxytocin on Emotion Regulation to Stressful Interaction in Insecure Adolescents: a Study Protocol for a Double Blind Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Exploratory Study of Cellular Reservoirs in Blood From HIV Infected Patients: EURECA (ERANET to Unravel New Roads to Eradication and a Cure for AIDS) Study</t>
+  </si>
+  <si>
+    <t>Oculomotor and Neurophysiological Markers of Emotion Regulation and Attachment Styles in Adolescence</t>
+  </si>
+  <si>
+    <t>Interest of Measuring Lung Elasticity ELASTOgraphy in the Fetus in the Case of PreMAture Childbirth Threat</t>
+  </si>
+  <si>
     <t>Influence of ABCB1 Polymorphisms on Plasma Concentrations of New Oral Anticoagulants in Case of Serious Adverse Events</t>
   </si>
   <si>
-    <t>Intravenous Dexamethasone Versus Placebo for Ultrasound Guided Axillary Brachial Plexus Block With Ropivacaine: Randomised, Controlled, Clinical Trial</t>
-  </si>
-  <si>
-    <t>Impact of Intravenous Exenatide Versus Insulin on Quality of Life in Cardiac Surgery Patients: an Ancillary Study of the ExSTRESS Phase II/III Clinical Trial</t>
-  </si>
-  <si>
-    <t>Evolution of Adipokines and Body Composition in Rheumatoid Arthritis Patients Receiving Tocilizumab Therapy</t>
-  </si>
-  <si>
-    <t>Prospective, Multicenter, Randomized Controlled Study Evaluating the Efficacy of Parenteral Nutrition on the Quality of Life and Overall Survival in Patients in the Palliative Phase of Cancer.</t>
-  </si>
-  <si>
     <t>Study of Two Fasting Procedures Before Gastroscopy: 6 Hours Versus 2 Hours for Clear Fluids</t>
   </si>
   <si>
+    <t>A Cross Over Randomized Controlled Trial of the Effect of Nasal Ocytocine on Cerebral Activations in Relation With Attachement in the General Population</t>
+  </si>
+  <si>
     <t>Determination of the Prevalence of ESBL-producing Enterobacteriaceae as Carbapenem-resistant Enterobacteriaceae in Nursing Homes in Franche-Comté (France).</t>
   </si>
   <si>
-    <t>A Cross Over Randomized Controlled Trial of the Effect of Nasal Ocytocine on Cerebral Activations in Relation With Attachement in the General Population</t>
+    <t>Prospective Evaluation of a New Molecular Tool for Early Diagnosis of Mucormycosis</t>
   </si>
   <si>
     <t>Pharmacokinetics and Pharmacodynamic (PK/PD) of Extended-infusion Meropenem, Piperacillin-tazobactam and Cefepime in the Early Phase of Septic Shock</t>
   </si>
   <si>
-    <t>Prospective Evaluation of a New Molecular Tool for Early Diagnosis of Mucormycosis</t>
-  </si>
-  <si>
     <t>Randomized Controlled Trial of the Effectiveness of Perineal Pain and Security of the Suture Led by the Result of Hemostasis Versus Manual Compression Routine Suture Perineal Tears of First Degree During Childbirth, ImSOLENCE Study</t>
   </si>
   <si>
+    <t>Effects of an Aerobic Exercise Program on Cycloergometer Followed by Cold Water Immersion Recovery in Patients With Rheumatoid Arthritis</t>
+  </si>
+  <si>
     <t>Evaluation of Immune Response Against Human Papillomavirus (HPV)in Patients With Metastatic Cancer of the Anal Canal</t>
   </si>
   <si>
-    <t>Effects of an Aerobic Exercise Program on Cycloergometer Followed by Cold Water Immersion Recovery in Patients With Rheumatoid Arthritis</t>
-  </si>
-  <si>
     <t>Short and Long Term Fampridine Treatment in Persons With Multiple Sclerosis: Cognitive and Motor Performances</t>
   </si>
   <si>
+    <t>Targeting Leukemic Stem Cell Expressing the IL-1RAP Protein in Chronic Myelogenous Leukemia (CML)</t>
+  </si>
+  <si>
+    <t>Determination of the Minimal Effective Concentration (EC90) of Ropivacaine in Axillary Brachial Plexus Block With Intravenous Dexamethasone or Saline Injection</t>
+  </si>
+  <si>
+    <t>Study of the Relative Impact of the Neonatal Fc Receptor (FcRn) and the Therapeutic History on Monoclonal Antibodies Elimination. Proof of the Concept on Patients Treated by Bevacizumab or Trastuzumab in Breast Cancer</t>
+  </si>
+  <si>
     <t>Evaluation in Children of the Psychological Impact of the Visit of a Hospitalized Relative in ICU</t>
   </si>
   <si>
+    <t>Impact of New Biomarkers on the Maintenance of Sinus Rhythm After Cardioversion or Ablation of Atrial Fibrillation</t>
+  </si>
+  <si>
+    <t>Study of Predictive Immunological Parameters of Molecular Complete Remission in Patients With Chronic Myelogenous Leukemia in Chronic Phase and Treated With Tyrosine Kinase Inhibitor</t>
+  </si>
+  <si>
     <t>Cerebrospinal Fluid Movements Through Interventricular Foramina in Phase Contrast Magnetic Resonance Imaging (PC-MRI)</t>
   </si>
   <si>
-    <t>Impact of New Biomarkers on the Maintenance of Sinus Rhythm After Cardioversion or Ablation of Atrial Fibrillation</t>
-  </si>
-  <si>
-    <t>Study of the Relative Impact of the Neonatal Fc Receptor (FcRn) and the Therapeutic History on Monoclonal Antibodies Elimination. Proof of the Concept on Patients Treated by Bevacizumab or Trastuzumab in Breast Cancer</t>
-  </si>
-  <si>
-    <t>Targeting Leukemic Stem Cell Expressing the IL-1RAP Protein in Chronic Myelogenous Leukemia (CML)</t>
+    <t>Prospective Study for Validation of Immunological Biomarkers in Patients With Metastatic Colorectal Cancer</t>
+  </si>
+  <si>
+    <t>Assessment of the Clinical Value of a Docetaxel, Cisplatin and 5-fluorouracil (DCF) Strategy Adapted to Patients for the Management of Metastatic or Locally Advanced Anal Resistant Radiochemotherapy Squamous Cell Anal Carcinoma.</t>
   </si>
   <si>
     <t>Analysis of DNA Methylation in Spondyloarthritis</t>
   </si>
   <si>
-    <t>Prospective Study for Validation of Immunological Biomarkers in Patients With Metastatic Colorectal Cancer</t>
-  </si>
-  <si>
-    <t>Assessment of the Clinical Value of a Docetaxel, Cisplatin and 5-fluorouracil (DCF) Strategy Adapted to Patients for the Management of Metastatic or Locally Advanced Anal Resistant Radiochemotherapy Squamous Cell Anal Carcinoma.</t>
-  </si>
-  <si>
-    <t>Study of Predictive Immunological Parameters of Molecular Complete Remission in Patients With Chronic Myelogenous Leukemia in Chronic Phase and Treated With Tyrosine Kinase Inhibitor</t>
-  </si>
-  <si>
-    <t>Determination of the Minimal Effective Concentration (EC90) of Ropivacaine in Axillary Brachial Plexus Block With Intravenous Dexamethasone or Saline Injection</t>
+    <t>Study of the Anti-tumoral Immune Response T Cells Cluster of Differentiation 4 (TCD4): Proof of the Concept in Breast Cancer and Glioma</t>
+  </si>
+  <si>
+    <t>Pharmaco-immunological Study of Interferon-alpha and Metronomic Cyclophosphamide Association in Neuroendocrine Tumors</t>
+  </si>
+  <si>
+    <t>Effects of Long Acting Bronchodilators on CARDiac Autonomic Nervous System Control in Patients With COPD</t>
+  </si>
+  <si>
+    <t>Preliminary Study Concerning the Validity of Parathyroid Exploration on a Discovery NM 530c CZT Camera</t>
+  </si>
+  <si>
+    <t>Out of Hospital Cardiac Arrest: Cluster Randomized Trial Assessing the Survival Impact of Phone Advice Delivered by Medical Call Center</t>
   </si>
   <si>
     <t>Impact of the Implementation of a qSOFA Score on the Care of Adult Patients Referred to the Emergency Department for Suspected Infection</t>
   </si>
   <si>
-    <t>Effects of Long Acting Bronchodilators on CARDiac Autonomic Nervous System Control in Patients With COPD</t>
+    <t>Study of Viral Load and Maternal-fetal Serology in the Interpretation of the Vertical Transmission of SARS Cov-2 During Pregnancy</t>
   </si>
   <si>
     <t>Monitoring of Fetal Lung Elasticity by Elastography Between 24 and 39 Weeks</t>
   </si>
   <si>
-    <t>Preliminary Study Concerning the Validity of Parathyroid Exploration on a Discovery NM 530c CZT Camera</t>
-  </si>
-  <si>
-    <t>Study of Viral Load and Maternal-fetal Serology in the Interpretation of the Vertical Transmission of SARS Cov-2 During Pregnancy</t>
-  </si>
-  <si>
-    <t>Study of the Anti-tumoral Immune Response T Cells Cluster of Differentiation 4 (TCD4): Proof of the Concept in Breast Cancer and Glioma</t>
-  </si>
-  <si>
-    <t>Pharmaco-immunological Study of Interferon-alpha and Metronomic Cyclophosphamide Association in Neuroendocrine Tumors</t>
+    <t>Development of a Software Correlating Simultaneously fMRI, EEG and Peripheral Physiological Activity</t>
+  </si>
+  <si>
+    <t>Evaluation of Copeptin in Patients With Cirrhosis and Ascites</t>
   </si>
   <si>
     <t>tDCS as an add-on Treatment for Resistant Major Depression in Uni- or Bipolar Patients: a Randomized, Double-blind, Placebo Controlled Study</t>
@@ -608,74 +647,88 @@
     <t>Relationship Between Hip Abductor Strength and Ankle Stability</t>
   </si>
   <si>
+    <t>Evaluation of Rapid Emergency Echography for Acute Dyspnoea for the Diagnosis of Acute Left-sided Heart Failure in Elderly Subjects Admitted to the Emergency Room (READ Protocol)</t>
+  </si>
+  <si>
     <t>Construction of a Mechanical Data Base for Mathematically Modeling Uncertainties in Human Skin Tissues</t>
   </si>
   <si>
-    <t>Development of a Software Correlating Simultaneously fMRI, EEG and Peripheral Physiological Activity</t>
+    <t>Citrullinemia for the Prediction of Enteral Nutrition Tolerance Among Critically Ill Patients</t>
+  </si>
+  <si>
+    <t>Evaluation of Survival Prognostic Factors for Patients With Exocrine Pancreatic Cancer Resectable or Potentially Resectable : a Multicentre Prospective Cohort</t>
+  </si>
+  <si>
+    <t>Study of Anti-telomerase T CD4 Immunity in Metastatic Lung Cancer</t>
+  </si>
+  <si>
+    <t>Normoxemic Versus Hyperoxemic Extracorporeal Oxygenation : Impact on Organ Dysfunction in Patients Supported by Veino-arterial ECMO for Cardiogenic Shock</t>
+  </si>
+  <si>
+    <t>First Study Evaluating Efficiency and Safety of a Compressive Device to Prevent Keloid Scars Recurrence After Surgery</t>
+  </si>
+  <si>
+    <t>A Multicenter, Double-blind, Placebo-controlled Randomized Clinical Trial Comparing Two Strategies of Primary Prophylaxis of Spontaneous Bacterial Peritonitis in Severe Cirrhotic Patients With Ascites : Using or Not Using Rifaximin</t>
+  </si>
+  <si>
+    <t>Regorafenib in Combination With Metronomic Cyclophosphamide, Capecitabine, and Low-dose Aspirin in Metastatic Colorectal Cancer Carcinoma An Open-label Phase II</t>
+  </si>
+  <si>
+    <t>Targeting Interleukin 1 Receptor Accessory Protein (IL1RAP) Expressing Acute Myeloid Leukemic (AML) Cells by Chimeric Antigen Receptor (CAR) Engineered T-cells</t>
+  </si>
+  <si>
+    <t>Prospective Feasibility Study of Point-of-care Ultrasound in Suspected Aortic Dissection</t>
+  </si>
+  <si>
+    <t>Correlating the Measure of Retinal Vascular Density Through Angio-OCT with Calcium Score</t>
   </si>
   <si>
     <t>Clinical Effectiveness of Hypertonic Sodium Lactate Infusion for Intraoperative Brain Relaxation in Patients Undergoing Scheduled Craniotomy for Supratentorial Brain Tumor Resection: Study Protocol of a Single Center Double-blind Randomized Controlled Phase II Pilot Trial</t>
   </si>
   <si>
-    <t>Normoxemic Versus Hyperoxemic Extracorporeal Oxygenation : Impact on Organ Dysfunction in Patients Supported by Veino-arterial ECMO for Cardiogenic Shock</t>
-  </si>
-  <si>
-    <t>Evaluation of Survival Prognostic Factors for Patients With Exocrine Pancreatic Cancer Resectable or Potentially Resectable : a Multicentre Prospective Cohort</t>
-  </si>
-  <si>
-    <t>Correlating the Measure of Retinal Vascular Density Through Angio-OCT with Calcium Score</t>
-  </si>
-  <si>
-    <t>A Multicenter, Double-blind, Placebo-controlled Randomized Clinical Trial Comparing Two Strategies of Primary Prophylaxis of Spontaneous Bacterial Peritonitis in Severe Cirrhotic Patients With Ascites : Using or Not Using Rifaximin</t>
-  </si>
-  <si>
-    <t>Prospective Feasibility Study of Point-of-care Ultrasound in Suspected Aortic Dissection</t>
-  </si>
-  <si>
-    <t>Targeting Interleukin 1 Receptor Accessory Protein (IL1RAP) Expressing Acute Myeloid Leukemic (AML) Cells by Chimeric Antigen Receptor (CAR) Engineered T-cells</t>
-  </si>
-  <si>
-    <t>Study of Anti-telomerase T CD4 Immunity in Metastatic Lung Cancer</t>
-  </si>
-  <si>
-    <t>Regorafenib in Combination With Metronomic Cyclophosphamide, Capecitabine, and Low-dose Aspirin in Metastatic Colorectal Cancer Carcinoma An Open-label Phase II</t>
-  </si>
-  <si>
-    <t>First Study Evaluating Efficiency and Safety of a Compressive Device to Prevent Keloid Scars Recurrence After Surgery</t>
-  </si>
-  <si>
-    <t>Efficacité en 1ère ligne de traitement d’une polychimiothérapie (méthotrexate, L-asparaginase, idarubicine et dexamethasone) dans la leucémie à cellules dendritiques plasmacytoïdes (LpDC) de l’adulte.</t>
-  </si>
-  <si>
-    <t>Impact of Perceptive, Executive and Emotional Factors on Decision-making in the Context of Pedestrian Crossing in an Industrial Environment Involving Traffic of Autonomous Vehicles (forklifts)</t>
-  </si>
-  <si>
-    <t>Biological Evaluation of a Novel Anti-inflammatory Treatment in Immune-mediated Inflammatory Diseases</t>
+    <t>Anticancer Therapeutic Vaccination Using Telomerase-derived Universal Cancer Peptides in Glioblastoma</t>
+  </si>
+  <si>
+    <t>Anticancer Therapeutic Vaccination Using Telomerase-derives Universal Cancer Peptides in Metastatic Non Small Cell Lung Cancer : A Phase I/II Study</t>
+  </si>
+  <si>
+    <t>Evaluation of UCPVax Plus Nivolumab as Second Line Therapy in Advanced Non Small Cell Lung : a Randomized Non Comparative Phase II Trial</t>
+  </si>
+  <si>
+    <t>UCPVax plus Nivolumab versus standard chemotherapy as second line therapy in advanced non-small cell lung cancer : a randomized non-comparative phase II trial 
+ UCPVax plus Nivolumab versus chimiothérapie en seconde ligne dans les cancers du poumon non à petites cellules avancés : étude de phase II randomisée non comparative</t>
   </si>
   <si>
     <t>A Multicenter Randomized Clinical Trial Comparing Two Treatment Strategies to Prevent Rebleeding From Gastric Varices: "Early TIPS" Versus Glue Obliteration</t>
   </si>
   <si>
     <t>Study of Genetic and Cellular Immunological Parameters Predictive of Disease-free Survival in Patients With Metastatic Cancer</t>
+  </si>
+  <si>
+    <t>A Phase II Study Evaluating the Interest to Combine UCPVax a CD4 TH1-inducer Cancer Vaccine and Atezolizumab for the Treatment of Human PapillomaVirus Positive Cancers</t>
   </si>
   <si>
     <t>Evaluation de l’intérêt d’une polychimiothérapie par XELOXIRI-3 chez les patients âgés ou fragiles atteints d’un adénocarcinome pancréatique métastatique 
  Evaluation de l’intérêt d’une polychimiothérapie par XELOXIRI-3 chez les patients âgés ou fragiles atteints d’un adénocarcinome pancréatique métastatique</t>
   </si>
   <si>
-    <t>Anticancer Therapeutic Vaccination Using Telomerase-derives Universal Cancer Peptides in Metastatic Non Small Cell Lung Cancer : A Phase I/II Study</t>
-  </si>
-  <si>
-    <t>A Phase II Study Evaluating the Interest to Combine UCPVax a CD4 TH1-inducer Cancer Vaccine and Atezolizumab for the Treatment of Human PapillomaVirus Positive Cancers</t>
-  </si>
-  <si>
-    <t>Anticancer Therapeutic Vaccination Using Telomerase-derived Universal Cancer Peptides in Glioblastoma</t>
+    <t>Efficacité en 1ère ligne de traitement d’une polychimiothérapie (méthotrexate, L-asparaginase, idarubicine et dexamethasone) dans la leucémie à cellules dendritiques plasmacytoïdes (LpDC) de l’adulte.</t>
+  </si>
+  <si>
+    <t>Biological Evaluation of a Novel Anti-inflammatory Treatment in Immune-mediated Inflammatory Diseases</t>
+  </si>
+  <si>
+    <t>Impact of Perceptive, Executive and Emotional Factors on Decision-making in the Context of Pedestrian Crossing in an Industrial Environment Involving Traffic of Autonomous Vehicles (forklifts)</t>
+  </si>
+  <si>
+    <t>Cabo-POLARIS. Etude de phase 2 prospective multicentrique en ouvert pour évaluer la durée de traitement par cabozantinib chez les patients atteints de carcinome rénal métastatique ou localement avancé en hémodialyse (HD).</t>
+  </si>
+  <si>
+    <t>Détermination de la Concentration Minimale Efficace pour 90% de Ropivacaïne (MEC90) des blocs du plexus brachial au creux axillaire, avec et sans ajout de Dexamethasone intraveineuse 
+ Détermination de la Concentration Minimale Efficace pour 90% de Ropivacaïne (MEC90) des blocs du plexus brachial au creux axillaire, avec et sans ajout de Dexamethasone intraveineuse</t>
   </si>
   <si>
     <t>Evaluation de l'association Fofiri 3 et bévacizumab (Avastin) dans le traitement des cadénocarcinomes colorectaux métastasiques</t>
-  </si>
-  <si>
-    <t>Cabo-POLARIS. Etude de phase 2 prospective multicentrique en ouvert pour évaluer la durée de traitement par cabozantinib chez les patients atteints de carcinome rénal métastatique ou localement avancé en hémodialyse (HD).</t>
   </si>
   <si>
     <t>A phase II study evaluating the interest to combine UCPVax a CD4 TH1-inducer cancer vaccine and atezolizumab for the treatment of HPV positive cancers 
@@ -704,188 +757,197 @@
     <t>CERVECHO</t>
   </si>
   <si>
+    <t>DEPRESCO</t>
+  </si>
+  <si>
+    <t>ENDOTANIL</t>
+  </si>
+  <si>
+    <t>DEBRIEF-SIM</t>
+  </si>
+  <si>
+    <t>IGUS</t>
+  </si>
+  <si>
+    <t>REVE</t>
+  </si>
+  <si>
     <t>MONRADO1</t>
   </si>
   <si>
-    <t>ENDOTANIL</t>
-  </si>
-  <si>
-    <t>DEBRIEF-SIM</t>
-  </si>
-  <si>
-    <t>DEPRESCO</t>
-  </si>
-  <si>
-    <t>IGUS</t>
-  </si>
-  <si>
-    <t>REVE</t>
-  </si>
-  <si>
     <t>METEOR</t>
   </si>
   <si>
     <t>EXPRED</t>
   </si>
   <si>
+    <t>XOLUS</t>
+  </si>
+  <si>
     <t>TherMO</t>
   </si>
   <si>
+    <t>TUBECHO</t>
+  </si>
+  <si>
     <t>DESA</t>
   </si>
   <si>
-    <t>TUBECHO</t>
-  </si>
-  <si>
-    <t>XOLUS</t>
+    <t>PEACE</t>
+  </si>
+  <si>
+    <t>DOCTORS</t>
   </si>
   <si>
     <t>PAPILLAN</t>
   </si>
   <si>
-    <t>PEACE</t>
+    <t>HYPERSENS</t>
+  </si>
+  <si>
+    <t>PELVI-EOS</t>
+  </si>
+  <si>
+    <t>ExSTRESS</t>
   </si>
   <si>
     <t>OBESOMAC</t>
-  </si>
-  <si>
-    <t>ExSTRESS</t>
-  </si>
-  <si>
-    <t>HYPERSENS</t>
-  </si>
-  <si>
-    <t>DOCTORS</t>
-  </si>
-  <si>
-    <t>PELVI-EOS</t>
-  </si>
-  <si>
-    <t>CDRI</t>
-  </si>
-  <si>
-    <t>MONRADO2</t>
-  </si>
-  <si>
-    <t>RV STAR</t>
-  </si>
-  <si>
-    <t>EURECA</t>
-  </si>
-  <si>
-    <t>ADIPSO</t>
-  </si>
-  <si>
-    <t>IRIS</t>
-  </si>
-  <si>
-    <t>ELASTOMAP</t>
-  </si>
-  <si>
-    <t>ELOREA</t>
   </si>
   <si>
     <t>ELOREA 
  ELOREA</t>
   </si>
   <si>
+    <t>ADIPSO</t>
+  </si>
+  <si>
+    <t>RV STAR</t>
+  </si>
+  <si>
+    <t>ADEXA</t>
+  </si>
+  <si>
+    <t>ExeQOL</t>
+  </si>
+  <si>
+    <t>IRIS</t>
+  </si>
+  <si>
+    <t>CDRI</t>
+  </si>
+  <si>
+    <t>ADIPRAT</t>
+  </si>
+  <si>
+    <t>ALIM-K</t>
+  </si>
+  <si>
+    <t>ELOREA</t>
+  </si>
+  <si>
+    <t>EURECA</t>
+  </si>
+  <si>
+    <t>MONRADO2</t>
+  </si>
+  <si>
+    <t>ELASTOMAP</t>
+  </si>
+  <si>
     <t>Pgp NACO</t>
   </si>
   <si>
-    <t>ADEXA</t>
-  </si>
-  <si>
-    <t>ExeQOL</t>
-  </si>
-  <si>
-    <t>ADIPRAT</t>
-  </si>
-  <si>
-    <t>ALIM-K</t>
-  </si>
-  <si>
     <t>GASTROPREP</t>
   </si>
   <si>
+    <t>OTACLA</t>
+  </si>
+  <si>
     <t>R'EHPAD</t>
   </si>
   <si>
-    <t>OTACLA</t>
+    <t>MODIMUCOR</t>
   </si>
   <si>
     <t>PAACS</t>
   </si>
   <si>
-    <t>MODIMUCOR</t>
-  </si>
-  <si>
     <t>ImSOLENCE</t>
   </si>
   <si>
+    <t>PREXCRIM</t>
+  </si>
+  <si>
+    <t>VESTIBULE</t>
+  </si>
+  <si>
+    <t>PROPASPI</t>
+  </si>
+  <si>
     <t>Epitopes-HPV01</t>
   </si>
   <si>
-    <t>PROPASPI</t>
-  </si>
-  <si>
-    <t>VESTIBULE</t>
-  </si>
-  <si>
-    <t>PREXCRIM</t>
-  </si>
-  <si>
     <t>FAMPISEP</t>
   </si>
   <si>
+    <t>CAR-LMC</t>
+  </si>
+  <si>
+    <t>AxiRopiDexa</t>
+  </si>
+  <si>
+    <t>PK-MAB</t>
+  </si>
+  <si>
     <t>ENVIFAR</t>
   </si>
   <si>
+    <t>Biorhythm</t>
+  </si>
+  <si>
+    <t>PAMIR01</t>
+  </si>
+  <si>
     <t>MLCSFIV</t>
   </si>
   <si>
-    <t>Biorhythm</t>
-  </si>
-  <si>
-    <t>PK-MAB</t>
-  </si>
-  <si>
-    <t>CAR-LMC</t>
+    <t>Epitopes-CRC02</t>
+  </si>
+  <si>
+    <t>Epitopes-HPV02</t>
   </si>
   <si>
     <t>METYLAS</t>
   </si>
   <si>
-    <t>Epitopes-CRC02</t>
-  </si>
-  <si>
-    <t>Epitopes-HPV02</t>
-  </si>
-  <si>
-    <t>PAMIR01</t>
-  </si>
-  <si>
-    <t>AxiRopiDexa</t>
+    <t>ERISA</t>
+  </si>
+  <si>
+    <t>EPICentro</t>
+  </si>
+  <si>
+    <t>LAB-Card</t>
+  </si>
+  <si>
+    <t>PARAT-CZT</t>
+  </si>
+  <si>
+    <t>CONTAC</t>
   </si>
   <si>
     <t>qSOFA2</t>
   </si>
   <si>
-    <t>LAB-Card</t>
+    <t>TRANSCOVID</t>
   </si>
   <si>
     <t>ELASTOPULM</t>
   </si>
   <si>
-    <t>PARAT-CZT</t>
-  </si>
-  <si>
-    <t>TRANSCOVID</t>
-  </si>
-  <si>
-    <t>ERISA</t>
-  </si>
-  <si>
-    <t>EPICentro</t>
+    <t>NEUREXPLO</t>
+  </si>
+  <si>
+    <t>CIRCOPEP</t>
   </si>
   <si>
     <t>STICODEP</t>
@@ -894,71 +956,85 @@
     <t>HIAS</t>
   </si>
   <si>
+    <t>READ</t>
+  </si>
+  <si>
     <t>SKUM</t>
   </si>
   <si>
-    <t>NEUREXPLO</t>
+    <t>PREDICT</t>
+  </si>
+  <si>
+    <t>Pancreas-CGE</t>
+  </si>
+  <si>
+    <t>Telocap02</t>
+  </si>
+  <si>
+    <t>ECMOxy</t>
+  </si>
+  <si>
+    <t>SCARWARS</t>
+  </si>
+  <si>
+    <t>ProPILARifax</t>
+  </si>
+  <si>
+    <t>REPROGRAM-01</t>
+  </si>
+  <si>
+    <t>CAR-LAM</t>
+  </si>
+  <si>
+    <t>FESDAU</t>
+  </si>
+  <si>
+    <t>ANOSCA</t>
   </si>
   <si>
     <t>LSD</t>
   </si>
   <si>
-    <t>ECMOxy</t>
-  </si>
-  <si>
-    <t>Pancreas-CGE</t>
-  </si>
-  <si>
-    <t>ANOSCA</t>
-  </si>
-  <si>
-    <t>ProPILARifax</t>
-  </si>
-  <si>
-    <t>FESDAU</t>
-  </si>
-  <si>
-    <t>CAR-LAM</t>
-  </si>
-  <si>
-    <t>Telocap02</t>
-  </si>
-  <si>
-    <t>REPROGRAM-01</t>
-  </si>
-  <si>
-    <t>SCARWARS</t>
-  </si>
-  <si>
-    <t>LpDessai-01</t>
-  </si>
-  <si>
-    <t>VASIS</t>
-  </si>
-  <si>
-    <t>Super-Bio</t>
+    <t>UCPVax-Glio</t>
+  </si>
+  <si>
+    <t>UCPVax</t>
+  </si>
+  <si>
+    <t>Optim-UCPVax</t>
+  </si>
+  <si>
+    <t>Optim-UCPVax 
+ Optim-UCPVax</t>
   </si>
   <si>
     <t>GAVAPROSEC</t>
   </si>
   <si>
     <t>Epitopes-CRC01</t>
+  </si>
+  <si>
+    <t>VolATIL</t>
   </si>
   <si>
     <t>ALIX 
  ALIX</t>
   </si>
   <si>
-    <t>UCPVax</t>
-  </si>
-  <si>
-    <t>VolATIL</t>
-  </si>
-  <si>
-    <t>UCPVax-Glio</t>
+    <t>LpDessai-01</t>
+  </si>
+  <si>
+    <t>Super-Bio</t>
+  </si>
+  <si>
+    <t>VASIS</t>
   </si>
   <si>
     <t>Cabo-POLARIS</t>
+  </si>
+  <si>
+    <t>Axi-Ropi-Dexa 
+ Axi-Ropi-Dexa</t>
   </si>
   <si>
     <t>VolATIL study 
@@ -972,12 +1048,12 @@
     <t>SURF</t>
   </si>
   <si>
+    <t>EROS</t>
+  </si>
+  <si>
     <t>NK-EGFR01</t>
   </si>
   <si>
-    <t>EROS</t>
-  </si>
-  <si>
     <t>PROCEDURE</t>
   </si>
   <si>
@@ -990,13 +1066,16 @@
     <t>DRUG</t>
   </si>
   <si>
+    <t>DEVICE</t>
+  </si>
+  <si>
     <t>BEHAVIORAL</t>
   </si>
   <si>
-    <t>DEVICE</t>
-  </si>
-  <si>
     <t>RADIATION</t>
+  </si>
+  <si>
+    <t>DRUG (presumed)</t>
   </si>
   <si>
     <t>GENETIC</t>
@@ -1360,7 +1439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1406,16 +1485,16 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H2" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="I2" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1429,13 +1508,13 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="I3" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1449,16 +1528,16 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G4" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="H4" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="I4" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1472,13 +1551,16 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G5" t="s">
-        <v>134</v>
+        <v>144</v>
+      </c>
+      <c r="H5" t="s">
+        <v>244</v>
       </c>
       <c r="I5" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1492,16 +1574,13 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H6" t="s">
-        <v>227</v>
+        <v>145</v>
       </c>
       <c r="I6" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1515,16 +1594,16 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="H7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="I7" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1538,16 +1617,16 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G8" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H8" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="I8" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1561,39 +1640,39 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G9" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="H9" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="I9" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="H10" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="I10" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1607,39 +1686,39 @@
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="H11" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="I11" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="H12" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="I12" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1653,16 +1732,16 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="H13" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="I13" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1676,13 +1755,13 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="I14" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1696,39 +1775,39 @@
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="H15" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="I15" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G16" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H16" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="I16" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1742,16 +1821,16 @@
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G17" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="H17" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="I17" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1765,39 +1844,39 @@
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G18" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H18" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="I18" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G19" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H19" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="I19" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1811,62 +1890,62 @@
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G20" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="H20" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="I20" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G21" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H21" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="I21" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G22" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="H22" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="I22" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1880,128 +1959,128 @@
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G23" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="H23" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="I23" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>122</v>
-      </c>
-      <c r="G24" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="H24" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="I24" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G25" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="H25" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="I25" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>122</v>
+        <v>132</v>
+      </c>
+      <c r="G26" t="s">
+        <v>164</v>
       </c>
       <c r="H26" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="I26" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>42</v>
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>111</v>
       </c>
       <c r="F27" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G27" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="H27" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="I27" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G28" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="H28" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="I28" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2012,65 +2091,65 @@
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G29" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="H29" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="I29" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G30" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="H30" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="I30" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G31" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="H31" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="I31" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2081,19 +2160,19 @@
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G32" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="H32" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="I32" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2104,42 +2183,42 @@
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G33" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="H33" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="I33" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G34" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="H34" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="I34" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2149,17 +2228,20 @@
       <c r="B35" t="s">
         <v>14</v>
       </c>
-      <c r="D35" t="s">
-        <v>106</v>
+      <c r="C35" t="s">
+        <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G35" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="H35" t="s">
-        <v>255</v>
+        <v>272</v>
+      </c>
+      <c r="I35" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2173,85 +2255,85 @@
         <v>50</v>
       </c>
       <c r="F36" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G36" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="H36" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="I36" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
         <v>51</v>
       </c>
       <c r="F37" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G37" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="H37" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="I37" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
         <v>52</v>
       </c>
       <c r="F38" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G38" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="H38" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="I38" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
         <v>53</v>
       </c>
       <c r="F39" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G39" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="H39" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="I39" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2265,16 +2347,16 @@
         <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G40" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="H40" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="I40" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2288,108 +2370,108 @@
         <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G41" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="H41" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="I41" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
         <v>56</v>
       </c>
       <c r="F42" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G42" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="H42" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="I42" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
         <v>57</v>
       </c>
       <c r="F43" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G43" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="H43" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="I43" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
         <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G44" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="H44" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="I44" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
         <v>59</v>
       </c>
       <c r="F45" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G45" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="H45" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="I45" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2403,16 +2485,16 @@
         <v>60</v>
       </c>
       <c r="F46" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G46" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="H46" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="I46" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2426,56 +2508,56 @@
         <v>61</v>
       </c>
       <c r="F47" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G47" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H47" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="I47" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
         <v>62</v>
       </c>
       <c r="F48" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="H48" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="I48" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
         <v>63</v>
       </c>
       <c r="F49" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="H49" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="I49" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2489,16 +2571,16 @@
         <v>64</v>
       </c>
       <c r="F50" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G50" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H50" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="I50" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2512,16 +2594,16 @@
         <v>65</v>
       </c>
       <c r="F51" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G51" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H51" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="I51" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2535,16 +2617,16 @@
         <v>66</v>
       </c>
       <c r="F52" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G52" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H52" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="I52" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2558,39 +2640,39 @@
         <v>67</v>
       </c>
       <c r="F53" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G53" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="H53" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="I53" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
         <v>68</v>
       </c>
       <c r="F54" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G54" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H54" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="I54" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2604,39 +2686,39 @@
         <v>69</v>
       </c>
       <c r="F55" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G55" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="H55" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="I55" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
         <v>70</v>
       </c>
       <c r="F56" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G56" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="H56" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="I56" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2650,39 +2732,39 @@
         <v>71</v>
       </c>
       <c r="F57" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G57" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="H57" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="I57" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
         <v>72</v>
       </c>
       <c r="F58" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G58" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="H58" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="I58" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2696,39 +2778,42 @@
         <v>73</v>
       </c>
       <c r="F59" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G59" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="H59" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="I59" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
         <v>74</v>
       </c>
+      <c r="D60" t="s">
+        <v>112</v>
+      </c>
       <c r="F60" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G60" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="H60" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="I60" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2742,16 +2827,16 @@
         <v>75</v>
       </c>
       <c r="F61" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G61" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="H61" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="I61" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2765,16 +2850,16 @@
         <v>76</v>
       </c>
       <c r="F62" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G62" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="H62" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="I62" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2788,39 +2873,39 @@
         <v>77</v>
       </c>
       <c r="F63" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G63" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="H63" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="I63" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
         <v>78</v>
       </c>
       <c r="F64" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G64" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="H64" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="I64" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2834,16 +2919,16 @@
         <v>79</v>
       </c>
       <c r="F65" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G65" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="H65" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="I65" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2857,16 +2942,16 @@
         <v>80</v>
       </c>
       <c r="F66" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G66" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="H66" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="I66" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2880,16 +2965,16 @@
         <v>81</v>
       </c>
       <c r="F67" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G67" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="H67" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="I67" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2903,62 +2988,62 @@
         <v>82</v>
       </c>
       <c r="F68" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G68" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="H68" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I68" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s">
         <v>83</v>
       </c>
       <c r="F69" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G69" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="H69" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="I69" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
         <v>84</v>
       </c>
       <c r="F70" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G70" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="H70" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="I70" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2972,16 +3057,16 @@
         <v>85</v>
       </c>
       <c r="F71" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G71" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="H71" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="I71" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2995,16 +3080,16 @@
         <v>86</v>
       </c>
       <c r="F72" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G72" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="H72" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="I72" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3018,39 +3103,39 @@
         <v>87</v>
       </c>
       <c r="F73" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G73" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="H73" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="I73" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
         <v>88</v>
       </c>
       <c r="F74" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G74" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H74" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="I74" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3064,16 +3149,16 @@
         <v>89</v>
       </c>
       <c r="F75" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G75" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="H75" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="I75" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3087,16 +3172,16 @@
         <v>90</v>
       </c>
       <c r="F76" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G76" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="H76" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="I76" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3110,16 +3195,16 @@
         <v>91</v>
       </c>
       <c r="F77" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G77" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="H77" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="I77" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3133,39 +3218,39 @@
         <v>92</v>
       </c>
       <c r="F78" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G78" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="H78" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="I78" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
         <v>93</v>
       </c>
       <c r="F79" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G79" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="H79" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="I79" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3179,16 +3264,16 @@
         <v>94</v>
       </c>
       <c r="F80" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G80" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="H80" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="I80" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3202,16 +3287,16 @@
         <v>95</v>
       </c>
       <c r="F81" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G81" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="H81" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="I81" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3225,16 +3310,16 @@
         <v>96</v>
       </c>
       <c r="F82" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G82" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="H82" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="I82" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3244,17 +3329,20 @@
       <c r="B83" t="s">
         <v>14</v>
       </c>
-      <c r="D83" t="s">
-        <v>107</v>
+      <c r="C83" t="s">
+        <v>97</v>
       </c>
       <c r="F83" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G83" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="H83" t="s">
-        <v>303</v>
+        <v>320</v>
+      </c>
+      <c r="I83" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3265,19 +3353,19 @@
         <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F84" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G84" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="H84" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="I84" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3288,42 +3376,42 @@
         <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F85" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G85" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="H85" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="I85" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F86" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G86" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="H86" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="I86" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3334,85 +3422,91 @@
         <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F87" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G87" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="H87" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="I87" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C88" t="s">
+        <v>102</v>
       </c>
       <c r="D88" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F88" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G88" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="H88" t="s">
-        <v>308</v>
+        <v>325</v>
+      </c>
+      <c r="I88" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F89" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G89" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="H89" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="I89" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
-      </c>
-      <c r="C90" t="s">
-        <v>102</v>
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>114</v>
       </c>
       <c r="F90" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G90" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="H90" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="I90" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3423,19 +3517,19 @@
         <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F91" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G91" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="H91" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="I91" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3445,28 +3539,43 @@
       <c r="B92" t="s">
         <v>14</v>
       </c>
-      <c r="D92" t="s">
-        <v>109</v>
+      <c r="C92" t="s">
+        <v>105</v>
+      </c>
+      <c r="F92" t="s">
+        <v>140</v>
       </c>
       <c r="G92" t="s">
-        <v>218</v>
+        <v>228</v>
+      </c>
+      <c r="H92" t="s">
+        <v>329</v>
+      </c>
+      <c r="I92" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" t="s">
-        <v>110</v>
+        <v>16</v>
+      </c>
+      <c r="C93" t="s">
+        <v>106</v>
+      </c>
+      <c r="F93" t="s">
+        <v>140</v>
       </c>
       <c r="G93" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="H93" t="s">
-        <v>312</v>
+        <v>330</v>
+      </c>
+      <c r="I93" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3477,13 +3586,19 @@
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>111</v>
+        <v>115</v>
+      </c>
+      <c r="F94" t="s">
+        <v>140</v>
       </c>
       <c r="G94" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="H94" t="s">
-        <v>313</v>
+        <v>331</v>
+      </c>
+      <c r="I94" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3494,13 +3609,19 @@
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>112</v>
+        <v>116</v>
+      </c>
+      <c r="F95" t="s">
+        <v>140</v>
       </c>
       <c r="G95" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="H95" t="s">
-        <v>314</v>
+        <v>332</v>
+      </c>
+      <c r="I95" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3510,14 +3631,20 @@
       <c r="B96" t="s">
         <v>14</v>
       </c>
-      <c r="D96" t="s">
-        <v>113</v>
+      <c r="C96" t="s">
+        <v>107</v>
+      </c>
+      <c r="F96" t="s">
+        <v>140</v>
       </c>
       <c r="G96" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="H96" t="s">
-        <v>315</v>
+        <v>333</v>
+      </c>
+      <c r="I96" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3527,14 +3654,20 @@
       <c r="B97" t="s">
         <v>14</v>
       </c>
-      <c r="D97" t="s">
-        <v>114</v>
+      <c r="C97" t="s">
+        <v>108</v>
+      </c>
+      <c r="F97" t="s">
+        <v>140</v>
       </c>
       <c r="G97" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="H97" t="s">
-        <v>269</v>
+        <v>334</v>
+      </c>
+      <c r="I97" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3544,17 +3677,17 @@
       <c r="B98" t="s">
         <v>14</v>
       </c>
-      <c r="C98" t="s">
-        <v>104</v>
+      <c r="D98" t="s">
+        <v>117</v>
       </c>
       <c r="G98" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="H98" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="I98" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3564,14 +3697,154 @@
       <c r="B99" t="s">
         <v>14</v>
       </c>
-      <c r="C99" t="s">
-        <v>105</v>
+      <c r="D99" t="s">
+        <v>118</v>
+      </c>
+      <c r="G99" t="s">
+        <v>235</v>
       </c>
       <c r="H99" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="I99" t="s">
-        <v>321</v>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>119</v>
+      </c>
+      <c r="G100" t="s">
+        <v>236</v>
+      </c>
+      <c r="I100" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
+        <v>120</v>
+      </c>
+      <c r="G101" t="s">
+        <v>237</v>
+      </c>
+      <c r="H101" t="s">
+        <v>337</v>
+      </c>
+      <c r="I101" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>121</v>
+      </c>
+      <c r="G102" t="s">
+        <v>238</v>
+      </c>
+      <c r="H102" t="s">
+        <v>338</v>
+      </c>
+      <c r="I102" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" t="s">
+        <v>122</v>
+      </c>
+      <c r="G103" t="s">
+        <v>239</v>
+      </c>
+      <c r="H103" t="s">
+        <v>339</v>
+      </c>
+      <c r="I103" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" t="s">
+        <v>109</v>
+      </c>
+      <c r="D104" t="s">
+        <v>123</v>
+      </c>
+      <c r="H104" t="s">
+        <v>340</v>
+      </c>
+      <c r="I104" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" t="s">
+        <v>124</v>
+      </c>
+      <c r="G105" t="s">
+        <v>240</v>
+      </c>
+      <c r="H105" t="s">
+        <v>285</v>
+      </c>
+      <c r="I105" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" t="s">
+        <v>110</v>
+      </c>
+      <c r="G106" t="s">
+        <v>241</v>
+      </c>
+      <c r="H106" t="s">
+        <v>341</v>
+      </c>
+      <c r="I106" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
